--- a/Brand_Dict/brand_dict_raw.xlsx
+++ b/Brand_Dict/brand_dict_raw.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meng-Chieh\Documents\GitHub\maboo\Brand_Dict\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067C94B7-EA82-4FB6-857E-17BE098B8117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="new_brand_dict" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="new_brand_dict"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -208,6 +202,9 @@
     <t>日本irisohyama</t>
   </si>
   <si>
+    <t>[ 'IRIS', 'IRIS OHYAMA', '日本Iris Ohyama', 'Iris Ohyama']</t>
+  </si>
+  <si>
     <t>日本toffy</t>
   </si>
   <si>
@@ -502,6 +499,12 @@
     <t>['自然之綠', '自然之綠 NATURAVERDE']</t>
   </si>
   <si>
+    <t>福樂</t>
+  </si>
+  <si>
+    <t>['福樂頂級優酪', '福樂鮮攪', '福樂自然零', '福樂低脂優酪', '福樂', '福樂一番鮮', '自然零']</t>
+  </si>
+  <si>
     <t>自然癮食addiction</t>
   </si>
   <si>
@@ -1009,6 +1012,9 @@
     <t>皇家特莉tilley</t>
   </si>
   <si>
+    <t>['皇家特莉 Tilley', 'Tilley 皇家特莉', 'Tilley 百年特莉']</t>
+  </si>
+  <si>
     <t>科克蘭 kirklandsignature</t>
   </si>
   <si>
@@ -1393,6 +1399,12 @@
     <t>['喜樂寵宴 Joy Food', '喜樂寵宴JOY FOOD']</t>
   </si>
   <si>
+    <t>嬌生</t>
+  </si>
+  <si>
+    <t>['嬌生', "Johnson's 嬌生", "嬌生 Johnson's"]</t>
+  </si>
+  <si>
     <t>喵洽普plancat</t>
   </si>
   <si>
@@ -1504,9 +1516,15 @@
     <t>猋pure</t>
   </si>
   <si>
+    <t>['猋 Pure', '猋', 'PURE']</t>
+  </si>
+  <si>
     <t>統一</t>
   </si>
   <si>
+    <t>['統一', '統一陽光', '統一Dr.Milker', '統一AB', '統一蜜豆奶', '統一瑞穗極制', '統一 AB', '統一生機', '統一水果牛乳', '統一瑞穗',  '統一LP33']</t>
+  </si>
+  <si>
     <t>絲凱露angfascalp-dbeauteangfad</t>
   </si>
   <si>
@@ -1666,6 +1684,9 @@
     <t>萬能媽媽wonder</t>
   </si>
   <si>
+    <t>['旺德 WONDER', '旺德 Wonder', '萬能媽媽 WONDER MAMA']</t>
+  </si>
+  <si>
     <t>義大利balzano</t>
   </si>
   <si>
@@ -1687,6 +1708,9 @@
     <t>聖萊西seeds</t>
   </si>
   <si>
+    <t>['惜時 SEEDS', '聖萊西 Seeds']</t>
+  </si>
+  <si>
     <t>聖羅蘭ysl</t>
   </si>
   <si>
@@ -1996,6 +2020,9 @@
     <t>黎可詩nuxe</t>
   </si>
   <si>
+    <t>['NUXE 巴黎歐樹', 'NUXE 黎可詩']</t>
+  </si>
+  <si>
     <t>澤井</t>
   </si>
   <si>
@@ -2212,6 +2239,12 @@
     <t>['寵愛物語', '寵愛物語 pet story']</t>
   </si>
   <si>
+    <t>羅密歐</t>
+  </si>
+  <si>
+    <t>['羅蜜歐 Romeo', '微繫時光 Romeo L.', '羅密歐 ROMEO', '羅密歐', '羅蜜歐 Romel L']</t>
+  </si>
+  <si>
     <t>麗仕lux</t>
   </si>
   <si>
@@ -2251,6 +2284,9 @@
     <t>寶絲汀psk</t>
   </si>
   <si>
+    <t>['PSK 寶絲汀', 'PSK 深海美肌專家']</t>
+  </si>
+  <si>
     <t>寶僑ariel</t>
   </si>
   <si>
@@ -2311,237 +2347,240 @@
     <t>['露遊 Treewalker','Tree Walker','TREEWALKER']</t>
   </si>
   <si>
+    <t>ahc</t>
+  </si>
+  <si>
+    <t>['AHC','A.H.C']</t>
+  </si>
+  <si>
+    <t>allegrini</t>
+  </si>
+  <si>
+    <t>['ALLEGRINI', 'Allegrini']</t>
+  </si>
+  <si>
+    <t>amino</t>
+  </si>
+  <si>
+    <t>['Amino Mason', 'Amino']</t>
+  </si>
+  <si>
+    <t>apieu</t>
+  </si>
+  <si>
+    <t>['Apieu',"A'PIEU"]</t>
+  </si>
+  <si>
+    <t>aprilskin</t>
+  </si>
+  <si>
+    <t>['APRILSKIN', 'Aprilskin']</t>
+  </si>
+  <si>
+    <t>arctic</t>
+  </si>
+  <si>
+    <t>['Arcticpet', 'ARCTIC']</t>
+  </si>
+  <si>
+    <t>aroma</t>
+  </si>
+  <si>
+    <t>['Aroma zone', 'Aroma']</t>
+  </si>
+  <si>
+    <t>astar</t>
+  </si>
+  <si>
+    <t>['A Star', 'A-Star bones']</t>
+  </si>
+  <si>
+    <t>avalonorganics</t>
+  </si>
+  <si>
+    <t>['AVALON ORGANICS', 'AVALON']</t>
+  </si>
+  <si>
+    <t>bequiet</t>
+  </si>
+  <si>
+    <t>['Be quiet', 'be quiet']</t>
+  </si>
+  <si>
+    <t>bhk's</t>
+  </si>
+  <si>
+    <t>['BHK’s', "BHK's"]</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>['BONE', 'BonePlus']</t>
+  </si>
+  <si>
+    <t>bowwow</t>
+  </si>
+  <si>
+    <t>['Bowwow', 'BowWow']</t>
+  </si>
+  <si>
+    <t>catfeet</t>
+  </si>
+  <si>
+    <t>['CatFeet', 'CATFEET']</t>
+  </si>
+  <si>
+    <t>cheers</t>
+  </si>
+  <si>
+    <t>['cheers', 'CheersJelly']</t>
+  </si>
+  <si>
+    <t>chicco</t>
+  </si>
+  <si>
+    <t>['chicco', 'Chicco', 'CHICCO']</t>
+  </si>
+  <si>
+    <t>clover</t>
+  </si>
+  <si>
+    <t>['CLOVER', 'Clover']</t>
+  </si>
+  <si>
+    <t>cocodor</t>
+  </si>
+  <si>
+    <t>['cocodor', 'Cocodor']</t>
+  </si>
+  <si>
+    <t>combo</t>
+  </si>
+  <si>
+    <t>['Combo', 'COMBO']</t>
+  </si>
+  <si>
+    <t>converse</t>
+  </si>
+  <si>
+    <t>['Converse', 'CONVERSE']</t>
+  </si>
+  <si>
+    <t>coolermaster</t>
+  </si>
+  <si>
+    <t>['Cooler Master', 'COOLER MASTER']</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>['Corona', 'CORONA']</t>
+  </si>
+  <si>
+    <t>domo</t>
+  </si>
+  <si>
+    <t>['DOMO', 'Domo']</t>
+  </si>
+  <si>
+    <t>ecostore</t>
+  </si>
+  <si>
+    <t>['ECOS, 'ecostore']</t>
+  </si>
+  <si>
+    <t>etudehouse</t>
+  </si>
+  <si>
+    <t>['ETUDE HOUSE', 'Etude House', 'ETUDE奧斯卡']</t>
+  </si>
+  <si>
+    <t>ezlife</t>
+  </si>
+  <si>
+    <t>['e.l.f.', 'EZlife']</t>
+  </si>
+  <si>
+    <t>farlin</t>
+  </si>
+  <si>
+    <t>['FARLIN', 'Farlin']</t>
+  </si>
+  <si>
+    <t>farmstay</t>
+  </si>
+  <si>
+    <t>['FARM STAY', 'Farm stay']</t>
+  </si>
+  <si>
+    <t>go!</t>
+  </si>
+  <si>
+    <t>['Go!', 'GO!']</t>
+  </si>
+  <si>
+    <t>honeysuckle</t>
+  </si>
+  <si>
+    <t>['honey', 'HONEYSUCKLE']</t>
+  </si>
+  <si>
+    <t>infothink</t>
+  </si>
+  <si>
+    <t>['InfoThink', 'infoThink']</t>
+  </si>
+  <si>
+    <t>johnmastersorganics</t>
+  </si>
+  <si>
+    <t>['John Masters Organics', 'john masters organics']</t>
+  </si>
+  <si>
+    <t>jomalone</t>
+  </si>
+  <si>
+    <t>['Jo Malone', 'JO MALONE']</t>
+  </si>
+  <si>
+    <t>kirin</t>
+  </si>
+  <si>
+    <t>['Kirin', 'KIRIN']</t>
+  </si>
+  <si>
+    <t>lestar</t>
+  </si>
+  <si>
+    <t>['lestar', 'Lestar']</t>
+  </si>
+  <si>
+    <t>loshi</t>
+  </si>
+  <si>
+    <t>['loshi', 'Loshi']</t>
+  </si>
+  <si>
+    <t>lotus</t>
+  </si>
+  <si>
+    <t>['LOTUS', 'Lotus']</t>
+  </si>
+  <si>
+    <t>lucky</t>
+  </si>
+  <si>
+    <t>['Lucky', 'LUCKY']</t>
+  </si>
+  <si>
+    <t>lumina</t>
+  </si>
+  <si>
     <t>['Lumina 露蜜', 'Lumina beauty care']</t>
   </si>
   <si>
-    <t>ahc</t>
-  </si>
-  <si>
-    <t>['AHC','A.H.C']</t>
-  </si>
-  <si>
-    <t>allegrini</t>
-  </si>
-  <si>
-    <t>['ALLEGRINI', 'Allegrini']</t>
-  </si>
-  <si>
-    <t>amino</t>
-  </si>
-  <si>
-    <t>['Amino Mason', 'Amino']</t>
-  </si>
-  <si>
-    <t>apieu</t>
-  </si>
-  <si>
-    <t>['Apieu',"A'PIEU"]</t>
-  </si>
-  <si>
-    <t>aprilskin</t>
-  </si>
-  <si>
-    <t>['APRILSKIN', 'Aprilskin']</t>
-  </si>
-  <si>
-    <t>arctic</t>
-  </si>
-  <si>
-    <t>['Arcticpet', 'ARCTIC']</t>
-  </si>
-  <si>
-    <t>aroma</t>
-  </si>
-  <si>
-    <t>['Aroma zone', 'Aroma']</t>
-  </si>
-  <si>
-    <t>astar</t>
-  </si>
-  <si>
-    <t>['A Star', 'A-Star bones']</t>
-  </si>
-  <si>
-    <t>avalonorganics</t>
-  </si>
-  <si>
-    <t>['AVALON ORGANICS', 'AVALON']</t>
-  </si>
-  <si>
-    <t>bequiet</t>
-  </si>
-  <si>
-    <t>['Be quiet', 'be quiet']</t>
-  </si>
-  <si>
-    <t>bhk's</t>
-  </si>
-  <si>
-    <t>['BHK’s', "BHK's"]</t>
-  </si>
-  <si>
-    <t>bone</t>
-  </si>
-  <si>
-    <t>['BONE', 'BonePlus']</t>
-  </si>
-  <si>
-    <t>bowwow</t>
-  </si>
-  <si>
-    <t>['Bowwow', 'BowWow']</t>
-  </si>
-  <si>
-    <t>catfeet</t>
-  </si>
-  <si>
-    <t>['CatFeet', 'CATFEET']</t>
-  </si>
-  <si>
-    <t>cheers</t>
-  </si>
-  <si>
-    <t>['cheers', 'CheersJelly']</t>
-  </si>
-  <si>
-    <t>chicco</t>
-  </si>
-  <si>
-    <t>['chicco', 'Chicco', 'CHICCO']</t>
-  </si>
-  <si>
-    <t>clover</t>
-  </si>
-  <si>
-    <t>['CLOVER', 'Clover']</t>
-  </si>
-  <si>
-    <t>cocodor</t>
-  </si>
-  <si>
-    <t>['cocodor', 'Cocodor']</t>
-  </si>
-  <si>
-    <t>combo</t>
-  </si>
-  <si>
-    <t>['Combo', 'COMBO']</t>
-  </si>
-  <si>
-    <t>converse</t>
-  </si>
-  <si>
-    <t>['Converse', 'CONVERSE']</t>
-  </si>
-  <si>
-    <t>coolermaster</t>
-  </si>
-  <si>
-    <t>['Cooler Master', 'COOLER MASTER']</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>['Corona', 'CORONA']</t>
-  </si>
-  <si>
-    <t>domo</t>
-  </si>
-  <si>
-    <t>['DOMO', 'Domo']</t>
-  </si>
-  <si>
-    <t>['e.l.f.', 'EZlife']</t>
-  </si>
-  <si>
-    <t>ecostore</t>
-  </si>
-  <si>
-    <t>['ECOS, 'ecostore']</t>
-  </si>
-  <si>
-    <t>etudehouse</t>
-  </si>
-  <si>
-    <t>['ETUDE HOUSE', 'Etude House', 'ETUDE奧斯卡']</t>
-  </si>
-  <si>
-    <t>ezlife</t>
-  </si>
-  <si>
-    <t>farlin</t>
-  </si>
-  <si>
-    <t>['FARLIN', 'Farlin']</t>
-  </si>
-  <si>
-    <t>farmstay</t>
-  </si>
-  <si>
-    <t>['FARM STAY', 'Farm stay']</t>
-  </si>
-  <si>
-    <t>go!</t>
-  </si>
-  <si>
-    <t>['Go!', 'GO!']</t>
-  </si>
-  <si>
-    <t>honeysuckle</t>
-  </si>
-  <si>
-    <t>['honey', 'HONEYSUCKLE']</t>
-  </si>
-  <si>
-    <t>infothink</t>
-  </si>
-  <si>
-    <t>['InfoThink', 'infoThink']</t>
-  </si>
-  <si>
-    <t>johnmastersorganics</t>
-  </si>
-  <si>
-    <t>['John Masters Organics', 'john masters organics']</t>
-  </si>
-  <si>
-    <t>jomalone</t>
-  </si>
-  <si>
-    <t>['Jo Malone', 'JO MALONE']</t>
-  </si>
-  <si>
-    <t>kirin</t>
-  </si>
-  <si>
-    <t>['Kirin', 'KIRIN']</t>
-  </si>
-  <si>
-    <t>lestar</t>
-  </si>
-  <si>
-    <t>loshi</t>
-  </si>
-  <si>
-    <t>['loshi', 'Loshi']</t>
-  </si>
-  <si>
-    <t>lotus</t>
-  </si>
-  <si>
-    <t>['LOTUS', 'Lotus']</t>
-  </si>
-  <si>
-    <t>lucky</t>
-  </si>
-  <si>
-    <t>['Lucky', 'LUCKY']</t>
-  </si>
-  <si>
-    <t>lumina</t>
-  </si>
-  <si>
     <t>luna</t>
   </si>
   <si>
@@ -2662,6 +2701,9 @@
     <t>['So Good', 'SO GOOD']</t>
   </si>
   <si>
+    <t>sparkeau</t>
+  </si>
+  <si>
     <t>['SPARKEAU', 'Sparkeau']</t>
   </si>
   <si>
@@ -2692,9 +2734,15 @@
     <t>vita</t>
   </si>
   <si>
+    <t>['vita','VITA']</t>
+  </si>
+  <si>
     <t>維他盒子vitabox</t>
   </si>
   <si>
+    <t>['Vitabox','維他盒子']</t>
+  </si>
+  <si>
     <t>vv</t>
   </si>
   <si>
@@ -2783,101 +2831,30 @@
   </si>
   <si>
     <t>['麥斯威爾 Maxwell', '卡夫亨氏']</t>
-  </si>
-  <si>
-    <t>['猋 Pure', '猋', 'PURE']</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>['Vitabox','維他盒子']</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>['vita','VITA']</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>['lestar', 'Lestar']</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>['統一', '統一陽光', '統一Dr.Milker', '統一AB', '統一蜜豆奶', '統一瑞穗極制', '統一 AB', '統一生機', '統一水果牛乳', '統一瑞穗',  '統一LP33']</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>['PSK 寶絲汀', 'PSK 深海美肌專家']</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>['皇家特莉 Tilley', 'Tilley 皇家特莉', 'Tilley 百年特莉']</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>['福樂頂級優酪', '福樂鮮攪', '福樂自然零', '福樂低脂優酪', '福樂', '福樂一番鮮', '自然零']</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>福樂</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sparkeau</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>['NUXE 巴黎歐樹', 'NUXE 黎可詩']</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>['嬌生', "Johnson's 嬌生", "嬌生 Johnson's"]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>嬌生</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>['羅蜜歐 Romeo', '微繫時光 Romeo L.', '羅密歐 ROMEO', '羅密歐', '羅蜜歐 Romel L']</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>羅密歐</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>['旺德 WONDER', '旺德 Wonder', '萬能媽媽 WONDER MAMA']</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>['惜時 SEEDS', '聖萊西 Seeds']</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ 'IRIS', 'IRIS OHYAMA', '日本Iris Ohyama', 'Iris Ohyama']</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2892,13 +2869,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2928,44 +2898,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2976,10 +2946,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3017,71 +2987,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3109,7 +3079,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -3132,11 +3102,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -3145,13 +3115,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3161,7 +3131,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -3170,7 +3140,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3179,7 +3149,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3187,10 +3157,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -3255,24 +3225,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.09765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.69921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="7" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="45.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3283,7 +3251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -3294,7 +3262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3305,7 +3273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3316,7 +3284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3327,7 +3295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3338,7 +3306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3349,7 +3317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -3360,7 +3328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -3371,7 +3339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -3382,7 +3350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -3393,7 +3361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -3404,7 +3372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -3415,7 +3383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -3426,7 +3394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -3437,7 +3405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -3448,7 +3416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -3459,7 +3427,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -3470,7 +3438,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -3481,7 +3449,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -3492,7 +3460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -3503,7 +3471,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -3514,7 +3482,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -3525,7 +3493,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -3536,7 +3504,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -3547,7 +3515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -3558,7 +3526,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -3569,7 +3537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -3580,7 +3548,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3591,7 +3559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3602,7 +3570,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3610,4829 +3578,4828 @@
         <v>61</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="4">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="4">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="4">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="4">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="4">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="4">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="4">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="4">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="4">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="4">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="4">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="4">
         <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="4">
         <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="4">
         <v>82</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="4">
         <v>83</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>929</v>
+        <v>161</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="4">
         <v>84</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="4">
         <v>85</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="4">
         <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="4">
         <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="4">
         <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="4">
         <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="4">
         <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="4">
         <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="4">
         <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="4">
         <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="4">
         <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="4">
         <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="4">
         <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="4">
         <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="4">
         <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="4">
         <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="4">
         <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="4">
         <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="4">
         <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="4">
         <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="4">
         <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="4">
         <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="4">
         <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="4">
         <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="4">
         <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="4">
         <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="4">
         <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="4">
         <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="4">
         <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="4">
         <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="4">
         <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="4">
         <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="4">
         <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="4">
         <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="4">
         <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="4">
         <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="4">
         <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="4">
         <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="4">
         <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="4">
         <v>129</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="4">
         <v>130</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="4">
         <v>132</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="4">
         <v>133</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="4">
         <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="4">
         <v>136</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="4">
         <v>137</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="4">
         <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="4">
         <v>139</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="4">
         <v>141</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="4">
         <v>142</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="4">
         <v>143</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="4">
         <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="4">
         <v>145</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="4">
         <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="4">
         <v>148</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="4">
         <v>150</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="4">
         <v>151</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="4">
         <v>152</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="4">
         <v>153</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="4">
         <v>154</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="4">
         <v>155</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="4">
         <v>156</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="4">
         <v>157</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="4">
         <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="4">
         <v>159</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="4">
         <v>160</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="4">
         <v>161</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="4">
         <v>162</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="4">
         <v>163</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="4">
         <v>165</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="4">
         <v>166</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="4">
         <v>167</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="4">
         <v>168</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="4">
         <v>169</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="4">
         <v>170</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="4">
         <v>171</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="4">
         <v>172</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="4">
         <v>174</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="4">
         <v>175</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="4">
         <v>176</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="4">
         <v>177</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="4">
         <v>178</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="4">
         <v>179</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="4">
         <v>180</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="4">
         <v>182</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="4">
         <v>183</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="4">
         <v>184</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="4">
         <v>185</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="4">
         <v>188</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="4">
         <v>189</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="4">
         <v>190</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="4">
         <v>191</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="4">
         <v>193</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="4">
         <v>194</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="4">
         <v>195</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="4">
         <v>196</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="4">
         <v>197</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="4">
         <v>199</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="4">
         <v>200</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="4">
         <v>201</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="4">
         <v>204</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="4">
         <v>206</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="4">
         <v>207</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="4">
         <v>208</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="4">
         <v>209</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="4">
         <v>212</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="4">
         <v>213</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="4">
         <v>214</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="4">
         <v>215</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="4">
         <v>216</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="4">
         <v>217</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="4">
         <v>218</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="4">
         <v>219</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="4">
         <v>220</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="4">
         <v>222</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="4">
         <v>223</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="4">
         <v>224</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="4">
         <v>225</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>398</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="4">
         <v>226</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="4">
         <v>227</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="4">
         <v>228</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="4">
         <v>229</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="4">
         <v>230</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>408</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="4">
         <v>231</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="4">
         <v>232</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="4">
         <v>233</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>414</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="4">
         <v>234</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>416</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="4">
         <v>235</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="4">
         <v>236</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="4">
         <v>238</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>422</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="4">
         <v>240</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>424</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="4">
         <v>242</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>426</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="4">
         <v>243</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>428</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="4">
         <v>244</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="4">
         <v>245</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>432</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="4">
         <v>246</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>434</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="4">
         <v>247</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>436</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="4">
         <v>248</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>438</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="4">
         <v>249</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>440</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="4">
         <v>250</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>442</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="4">
         <v>251</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="4">
         <v>252</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>446</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="4">
         <v>253</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="4">
         <v>254</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="4">
         <v>255</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="4">
         <v>256</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>454</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="4">
         <v>259</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>456</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="4">
         <v>260</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>458</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="4">
         <v>261</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="4">
         <v>262</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>933</v>
+        <v>461</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>462</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="4">
         <v>263</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="4">
         <v>264</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="4">
         <v>265</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="4">
         <v>266</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="4">
         <v>267</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="4">
         <v>268</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="4">
         <v>269</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="4">
         <v>270</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="4">
         <v>272</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="4">
         <v>274</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="4">
         <v>277</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="4">
         <v>278</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="4">
         <v>279</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>488</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="4">
         <v>280</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="4">
         <v>281</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="4">
         <v>283</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>494</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="4">
         <v>284</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>496</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="4">
         <v>285</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>498</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="4">
         <v>286</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>500</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="4">
         <v>287</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="4">
         <v>292</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="4">
         <v>293</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="4">
         <v>294</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>508</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="4">
         <v>295</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>510</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="4">
         <v>296</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>512</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="4">
         <v>297</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>514</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="4">
         <v>298</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>516</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="4">
         <v>299</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>518</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="4">
         <v>300</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="4">
         <v>301</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="4">
         <v>302</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>524</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="4">
         <v>303</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>526</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="4">
         <v>304</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>528</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="4">
         <v>305</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="4">
         <v>306</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="4">
         <v>307</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>534</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="4">
         <v>309</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="4">
         <v>310</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>538</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="4">
         <v>311</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>540</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="4">
         <v>314</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>542</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="4">
         <v>315</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>544</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
       <c r="A273" s="4">
         <v>317</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>546</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
       <c r="A274" s="4">
         <v>318</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>548</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
       <c r="A275" s="4">
         <v>319</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>550</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
       <c r="A276" s="4">
         <v>320</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>552</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
       <c r="A277" s="4">
         <v>322</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>554</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
       <c r="A278" s="4">
         <v>323</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
       <c r="A279" s="4">
         <v>324</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>558</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
       <c r="A280" s="4">
         <v>325</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>560</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
       <c r="A281" s="4">
         <v>327</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>562</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
       <c r="A282" s="4">
         <v>329</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>564</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
       <c r="A283" s="4">
         <v>330</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
       <c r="A284" s="4">
         <v>331</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
       <c r="A285" s="4">
         <v>334</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>570</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
       <c r="A286" s="4">
         <v>335</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
       <c r="A287" s="4">
         <v>337</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>574</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
       <c r="A288" s="4">
         <v>338</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
       <c r="A289" s="4">
         <v>339</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>578</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
       <c r="A290" s="4">
         <v>340</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>580</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
       <c r="A291" s="4">
         <v>341</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>582</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
       <c r="A292" s="4">
         <v>342</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>584</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
       <c r="A293" s="4">
         <v>343</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>586</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
       <c r="A294" s="4">
         <v>345</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>588</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
       <c r="A295" s="4">
         <v>346</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>590</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
       <c r="A296" s="4">
         <v>347</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>592</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
       <c r="A297" s="4">
         <v>348</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>594</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
       <c r="A298" s="4">
         <v>349</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>596</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
       <c r="A299" s="4">
         <v>350</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
       <c r="A300" s="4">
         <v>351</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
       <c r="A301" s="4">
         <v>352</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
       <c r="A302" s="4">
         <v>353</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>604</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
       <c r="A303" s="4">
         <v>354</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>606</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
       <c r="A304" s="4">
         <v>355</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>608</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
       <c r="A305" s="4">
         <v>358</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>610</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
       <c r="A306" s="4">
         <v>359</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>612</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
       <c r="A307" s="4">
         <v>360</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
       <c r="A308" s="4">
         <v>362</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>616</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
       <c r="A309" s="4">
         <v>363</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
       <c r="A310" s="4">
         <v>364</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
       <c r="A311" s="4">
         <v>365</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>622</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
       <c r="A312" s="4">
         <v>366</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>624</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
       <c r="A313" s="4">
         <v>367</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
       <c r="A314" s="4">
         <v>368</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>628</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
       <c r="A315" s="4">
         <v>369</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
       <c r="A316" s="4">
         <v>370</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>632</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
       <c r="A317" s="4">
         <v>372</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>634</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
       <c r="A318" s="4">
         <v>373</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>636</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
       <c r="A319" s="4">
         <v>374</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>638</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
       <c r="A320" s="4">
         <v>375</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>640</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
       <c r="A321" s="4">
         <v>376</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>642</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
       <c r="A322" s="4">
         <v>377</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
       <c r="A323" s="4">
         <v>378</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>646</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
       <c r="A324" s="4">
         <v>379</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>648</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
       <c r="A325" s="4">
         <v>380</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>650</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
       <c r="A326" s="4">
         <v>381</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>652</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
       <c r="A327" s="4">
         <v>382</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>654</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
       <c r="A328" s="4">
         <v>383</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>656</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
       <c r="A329" s="4">
         <v>384</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>658</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
       <c r="A330" s="4">
         <v>385</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>660</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
       <c r="A331" s="4">
         <v>386</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>662</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
       <c r="A332" s="4">
         <v>387</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>664</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
       <c r="A333" s="4">
         <v>388</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>666</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
       <c r="A334" s="4">
         <v>389</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>668</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
       <c r="A335" s="4">
         <v>390</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
       <c r="A336" s="4">
         <v>392</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>672</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
       <c r="A337" s="4">
         <v>393</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>674</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
       <c r="A338" s="4">
         <v>394</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>676</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
       <c r="A339" s="4">
         <v>395</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>678</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
       <c r="A340" s="4">
         <v>396</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>680</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
       <c r="A341" s="4">
         <v>397</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>682</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
       <c r="A342" s="4">
         <v>398</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>684</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
       <c r="A343" s="4">
         <v>399</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>686</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
       <c r="A344" s="4">
         <v>400</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>688</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
       <c r="A345" s="4">
         <v>401</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>690</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
       <c r="A346" s="4">
         <v>402</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>692</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
       <c r="A347" s="4">
         <v>403</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>694</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
       <c r="A348" s="4">
         <v>404</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>696</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75">
       <c r="A349" s="4">
         <v>406</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>698</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75">
       <c r="A350" s="4">
         <v>407</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75">
       <c r="A351" s="4">
         <v>408</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>702</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75">
       <c r="A352" s="4">
         <v>409</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>704</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
       <c r="A353" s="4">
         <v>410</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
       <c r="A354" s="4">
         <v>412</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>708</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
       <c r="A355" s="4">
         <v>413</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>710</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75">
       <c r="A356" s="4">
         <v>414</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>712</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
       <c r="A357" s="4">
         <v>415</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>714</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75">
       <c r="A358" s="4">
         <v>416</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>716</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75">
       <c r="A359" s="4">
         <v>417</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>718</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
       <c r="A360" s="4">
         <v>418</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>720</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75">
       <c r="A361" s="4">
         <v>419</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>722</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
       <c r="A362" s="4">
         <v>420</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>724</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
       <c r="A363" s="4">
         <v>422</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>726</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75">
       <c r="A364" s="4">
         <v>424</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
       <c r="A365" s="4">
         <v>425</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>730</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
       <c r="A366" s="4">
         <v>428</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>732</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75">
       <c r="A367" s="4">
         <v>429</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>734</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75">
       <c r="A368" s="4">
         <v>431</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>736</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75">
       <c r="A369" s="4">
         <v>432</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>738</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75">
       <c r="A370" s="4">
         <v>433</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>740</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75">
       <c r="A371" s="4">
         <v>434</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>935</v>
+        <v>741</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>742</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75">
       <c r="A372" s="4">
         <v>435</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>744</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75">
       <c r="A373" s="4">
         <v>436</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75">
       <c r="A374" s="4">
         <v>437</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>748</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
       <c r="A375" s="4">
         <v>438</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
       <c r="A376" s="4">
         <v>439</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>752</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75">
       <c r="A377" s="4">
         <v>440</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>754</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75">
       <c r="A378" s="4">
         <v>441</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>756</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75">
       <c r="A379" s="4">
         <v>442</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>758</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
       <c r="A380" s="4">
         <v>443</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>760</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75">
       <c r="A381" s="4">
         <v>444</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>762</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
       <c r="A382" s="4">
         <v>445</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>764</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
       <c r="A383" s="4">
         <v>446</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>751</v>
+        <v>765</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>766</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75">
       <c r="A384" s="4">
         <v>447</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>753</v>
+        <v>767</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>768</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75">
       <c r="A385" s="4">
         <v>448</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>770</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
       <c r="A386" s="4">
         <v>449</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>772</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
       <c r="A387" s="4">
         <v>450</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>774</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
       <c r="A388" s="4">
         <v>451</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>776</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
       <c r="A389" s="4">
         <v>453</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>778</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
       <c r="A390" s="4">
         <v>454</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>780</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
       <c r="A391" s="4">
         <v>455</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>782</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
       <c r="A392" s="4">
         <v>457</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>784</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
       <c r="A393" s="4">
         <v>458</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>786</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
       <c r="A394" s="4">
         <v>459</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>788</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75">
       <c r="A395" s="4">
         <v>461</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>790</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
       <c r="A396" s="4">
         <v>462</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>792</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
       <c r="A397" s="4">
         <v>463</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>794</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
       <c r="A398" s="4">
         <v>464</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>796</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
       <c r="A399" s="4">
         <v>465</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>798</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75">
       <c r="A400" s="4">
         <v>466</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>800</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75">
       <c r="A401" s="4">
         <v>468</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>802</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75">
       <c r="A402" s="4">
         <v>469</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>804</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75">
       <c r="A403" s="4">
         <v>470</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>806</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75">
       <c r="A404" s="4">
         <v>472</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75">
       <c r="A405" s="4">
         <v>475</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>810</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75">
       <c r="A406" s="4">
         <v>476</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>812</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75">
       <c r="A407" s="4">
         <v>477</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>814</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75">
       <c r="A408" s="4">
         <v>478</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>816</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75">
       <c r="A409" s="4">
         <v>479</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>818</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75">
       <c r="A410" s="4">
         <v>480</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>820</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75">
       <c r="A411" s="4">
         <v>482</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>822</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75">
       <c r="A412" s="4">
         <v>484</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>824</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75">
       <c r="A413" s="4">
         <v>485</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>826</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75">
       <c r="A414" s="4">
         <v>486</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>828</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75">
       <c r="A415" s="4">
         <v>487</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>830</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75">
       <c r="A416" s="4">
         <v>488</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>832</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75">
       <c r="A417" s="4">
         <v>490</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>834</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75">
       <c r="A418" s="4">
         <v>491</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>836</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75">
       <c r="A419" s="4">
         <v>492</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>838</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75">
       <c r="A420" s="4">
         <v>493</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>840</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75">
       <c r="A421" s="4">
         <v>494</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>842</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75">
       <c r="A422" s="4">
         <v>495</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>844</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75">
       <c r="A423" s="4">
         <v>496</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>846</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75">
       <c r="A424" s="4">
         <v>497</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>848</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75">
       <c r="A425" s="4">
         <v>498</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>850</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75">
       <c r="A426" s="4">
         <v>499</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>852</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75">
       <c r="A427" s="4">
         <v>500</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>854</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75">
       <c r="A428" s="4">
         <v>501</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>856</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75">
       <c r="A429" s="4">
         <v>503</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>858</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75">
       <c r="A430" s="4">
         <v>504</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>844</v>
+        <v>859</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>860</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75">
       <c r="A431" s="4">
         <v>506</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>846</v>
+        <v>861</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>862</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75">
       <c r="A432" s="4">
         <v>508</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>864</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75">
       <c r="A433" s="4">
         <v>509</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>866</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75">
       <c r="A434" s="4">
         <v>511</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>868</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75">
       <c r="A435" s="4">
         <v>512</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>870</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75">
       <c r="A436" s="4">
         <v>513</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>856</v>
+        <v>871</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>872</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75">
       <c r="A437" s="4">
         <v>515</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>858</v>
+        <v>873</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>874</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75">
       <c r="A438" s="4">
         <v>516</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>876</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75">
       <c r="A439" s="4">
         <v>517</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>878</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75">
       <c r="A440" s="4">
         <v>518</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>880</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75">
       <c r="A441" s="4">
         <v>519</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>866</v>
+        <v>881</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>882</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75">
       <c r="A442" s="4">
         <v>521</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>884</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75">
       <c r="A443" s="4">
         <v>525</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>886</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75">
       <c r="A444" s="4">
         <v>527</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>888</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75">
       <c r="A445" s="4">
         <v>528</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>890</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75">
       <c r="A446" s="4">
         <v>529</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>892</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75">
       <c r="A447" s="4">
         <v>531</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>894</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75">
       <c r="A448" s="4">
         <v>532</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>930</v>
+        <v>895</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>896</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75">
       <c r="A449" s="4">
         <v>535</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>898</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75">
       <c r="A450" s="4">
         <v>536</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>900</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75">
       <c r="A451" s="4">
         <v>537</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>885</v>
+        <v>901</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>902</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75">
       <c r="A452" s="4">
         <v>538</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>904</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75">
       <c r="A453" s="4">
         <v>539</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>889</v>
+        <v>905</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>906</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75">
       <c r="A454" s="4">
         <v>540</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>890</v>
+        <v>907</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>908</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="19.5">
       <c r="A455" s="4">
         <v>541</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>891</v>
+        <v>909</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>910</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75">
       <c r="A456" s="4">
         <v>542</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>893</v>
+        <v>911</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>912</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75">
       <c r="A457" s="4">
         <v>543</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>914</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75">
       <c r="A458" s="4">
         <v>544</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>897</v>
+        <v>915</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>916</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75">
       <c r="A459" s="4">
         <v>545</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>899</v>
+        <v>917</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>918</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75">
       <c r="A460" s="4">
         <v>546</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>901</v>
+        <v>919</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>920</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75">
       <c r="A461" s="4">
         <v>547</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>922</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75">
       <c r="A462" s="4">
         <v>548</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>905</v>
+        <v>923</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>924</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75">
       <c r="A463" s="4">
         <v>549</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>907</v>
+        <v>925</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>926</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75">
       <c r="A464" s="4">
         <v>550</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>909</v>
+        <v>927</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>928</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75">
       <c r="A465" s="4">
         <v>551</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75">
       <c r="A466" s="4">
         <v>552</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>913</v>
+        <v>931</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>932</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75">
       <c r="A467" s="4">
         <v>553</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A468" s="5">
+        <v>934</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75">
+      <c r="A468" s="4">
         <v>554</v>
       </c>
-      <c r="B468" s="6" t="s">
-        <v>917</v>
+      <c r="B468" s="5" t="s">
+        <v>935</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A469" s="5">
+        <v>936</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75">
+      <c r="A469" s="4">
         <v>555</v>
       </c>
-      <c r="B469" s="7" t="s">
-        <v>919</v>
+      <c r="B469" s="6" t="s">
+        <v>937</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>920</v>
+        <v>938</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Brand_Dict/brand_dict_raw.xlsx
+++ b/Brand_Dict/brand_dict_raw.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meng-Chieh\Documents\GitHub\maboo\Brand_Dict\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D995AF-CFEF-4FA7-81F7-C20EB8042292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="new_brand_dict"/>
+    <sheet name="new_brand_dict" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="943">
   <si>
     <t>Column1</t>
   </si>
@@ -280,15 +286,6 @@
     <t>台塑生醫醫之方</t>
   </si>
   <si>
-    <t>['醫之方', '台塑生醫 醫之方']</t>
-  </si>
-  <si>
-    <t>台塑生醫dr'sformula</t>
-  </si>
-  <si>
-    <t>['台塑生醫', '台塑生醫 Dr’s Formula', 'Dr‘s Formula', "Dr's Formula 台塑生醫", "台塑生醫Dr's Formula"]</t>
-  </si>
-  <si>
     <t>台農</t>
   </si>
   <si>
@@ -1522,9 +1519,6 @@
     <t>統一</t>
   </si>
   <si>
-    <t>['統一', '統一陽光', '統一Dr.Milker', '統一AB', '統一蜜豆奶', '統一瑞穗極制', '統一 AB', '統一生機', '統一水果牛乳', '統一瑞穗',  '統一LP33']</t>
-  </si>
-  <si>
     <t>絲凱露angfascalp-dbeauteangfad</t>
   </si>
   <si>
@@ -2272,577 +2266,667 @@
     <t>麗美盛</t>
   </si>
   <si>
+    <t>寶多福petlife</t>
+  </si>
+  <si>
+    <t>寶絲汀psk</t>
+  </si>
+  <si>
+    <t>['PSK 寶絲汀', 'PSK 深海美肌專家']</t>
+  </si>
+  <si>
+    <t>寶僑ariel</t>
+  </si>
+  <si>
+    <t>['寶僑','Ariel']</t>
+  </si>
+  <si>
+    <t>寶瀅persil</t>
+  </si>
+  <si>
+    <t>['Persil', '寶瀅Persil']</t>
+  </si>
+  <si>
+    <t>耀eau</t>
+  </si>
+  <si>
+    <t>['EAU 耀', '耀 EAU', 'EAU耀']</t>
+  </si>
+  <si>
+    <t>蘇菲娜sofina</t>
+  </si>
+  <si>
+    <t>['蘇菲', 'SOFINA 蘇菲娜']</t>
+  </si>
+  <si>
+    <t>贏in-plus</t>
+  </si>
+  <si>
+    <t>['贏 IN-Plus', '贏 IN-PLUS']</t>
+  </si>
+  <si>
+    <t>蘭吉兒l'egere</t>
+  </si>
+  <si>
+    <t>["L'EGERE 蘭吉兒", 'LEGERE 蘭吉兒']</t>
+  </si>
+  <si>
+    <t>蘭蔻lancome</t>
+  </si>
+  <si>
+    <t>['LANCÔME 蘭蔻', 'LANCOME 蘭蔻']</t>
+  </si>
+  <si>
+    <t>蘭韻lalune</t>
+  </si>
+  <si>
+    <t>['la lune 蘭韻', '蘭韻']</t>
+  </si>
+  <si>
+    <t>露遊treewalker</t>
+  </si>
+  <si>
+    <t>['露遊 Treewalker','Tree Walker','TREEWALKER']</t>
+  </si>
+  <si>
+    <t>ahc</t>
+  </si>
+  <si>
+    <t>['AHC','A.H.C']</t>
+  </si>
+  <si>
+    <t>allegrini</t>
+  </si>
+  <si>
+    <t>['ALLEGRINI', 'Allegrini']</t>
+  </si>
+  <si>
+    <t>amino</t>
+  </si>
+  <si>
+    <t>['Amino Mason', 'Amino']</t>
+  </si>
+  <si>
+    <t>apieu</t>
+  </si>
+  <si>
+    <t>['Apieu',"A'PIEU"]</t>
+  </si>
+  <si>
+    <t>aprilskin</t>
+  </si>
+  <si>
+    <t>['APRILSKIN', 'Aprilskin']</t>
+  </si>
+  <si>
+    <t>arctic</t>
+  </si>
+  <si>
+    <t>['Arcticpet', 'ARCTIC']</t>
+  </si>
+  <si>
+    <t>aroma</t>
+  </si>
+  <si>
+    <t>['Aroma zone', 'Aroma']</t>
+  </si>
+  <si>
+    <t>astar</t>
+  </si>
+  <si>
+    <t>['A Star', 'A-Star bones']</t>
+  </si>
+  <si>
+    <t>avalonorganics</t>
+  </si>
+  <si>
+    <t>['AVALON ORGANICS', 'AVALON']</t>
+  </si>
+  <si>
+    <t>bequiet</t>
+  </si>
+  <si>
+    <t>['Be quiet', 'be quiet']</t>
+  </si>
+  <si>
+    <t>bhk's</t>
+  </si>
+  <si>
+    <t>['BHK’s', "BHK's"]</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>['BONE', 'BonePlus']</t>
+  </si>
+  <si>
+    <t>bowwow</t>
+  </si>
+  <si>
+    <t>['Bowwow', 'BowWow']</t>
+  </si>
+  <si>
+    <t>catfeet</t>
+  </si>
+  <si>
+    <t>['CatFeet', 'CATFEET']</t>
+  </si>
+  <si>
+    <t>cheers</t>
+  </si>
+  <si>
+    <t>['cheers', 'CheersJelly']</t>
+  </si>
+  <si>
+    <t>chicco</t>
+  </si>
+  <si>
+    <t>['chicco', 'Chicco', 'CHICCO']</t>
+  </si>
+  <si>
+    <t>clover</t>
+  </si>
+  <si>
+    <t>['CLOVER', 'Clover']</t>
+  </si>
+  <si>
+    <t>cocodor</t>
+  </si>
+  <si>
+    <t>['cocodor', 'Cocodor']</t>
+  </si>
+  <si>
+    <t>combo</t>
+  </si>
+  <si>
+    <t>['Combo', 'COMBO']</t>
+  </si>
+  <si>
+    <t>converse</t>
+  </si>
+  <si>
+    <t>['Converse', 'CONVERSE']</t>
+  </si>
+  <si>
+    <t>coolermaster</t>
+  </si>
+  <si>
+    <t>['Cooler Master', 'COOLER MASTER']</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>['Corona', 'CORONA']</t>
+  </si>
+  <si>
+    <t>domo</t>
+  </si>
+  <si>
+    <t>['DOMO', 'Domo']</t>
+  </si>
+  <si>
+    <t>ecostore</t>
+  </si>
+  <si>
+    <t>['ECOS, 'ecostore']</t>
+  </si>
+  <si>
+    <t>etudehouse</t>
+  </si>
+  <si>
+    <t>['ETUDE HOUSE', 'Etude House', 'ETUDE奧斯卡']</t>
+  </si>
+  <si>
+    <t>ezlife</t>
+  </si>
+  <si>
+    <t>['e.l.f.', 'EZlife']</t>
+  </si>
+  <si>
+    <t>farlin</t>
+  </si>
+  <si>
+    <t>['FARLIN', 'Farlin']</t>
+  </si>
+  <si>
+    <t>farmstay</t>
+  </si>
+  <si>
+    <t>['FARM STAY', 'Farm stay']</t>
+  </si>
+  <si>
+    <t>go!</t>
+  </si>
+  <si>
+    <t>['Go!', 'GO!']</t>
+  </si>
+  <si>
+    <t>honeysuckle</t>
+  </si>
+  <si>
+    <t>['honey', 'HONEYSUCKLE']</t>
+  </si>
+  <si>
+    <t>infothink</t>
+  </si>
+  <si>
+    <t>['InfoThink', 'infoThink']</t>
+  </si>
+  <si>
+    <t>johnmastersorganics</t>
+  </si>
+  <si>
+    <t>['John Masters Organics', 'john masters organics']</t>
+  </si>
+  <si>
+    <t>jomalone</t>
+  </si>
+  <si>
+    <t>['Jo Malone', 'JO MALONE']</t>
+  </si>
+  <si>
+    <t>kirin</t>
+  </si>
+  <si>
+    <t>['Kirin', 'KIRIN']</t>
+  </si>
+  <si>
+    <t>lestar</t>
+  </si>
+  <si>
+    <t>['lestar', 'Lestar']</t>
+  </si>
+  <si>
+    <t>loshi</t>
+  </si>
+  <si>
+    <t>['loshi', 'Loshi']</t>
+  </si>
+  <si>
+    <t>lotus</t>
+  </si>
+  <si>
+    <t>['LOTUS', 'Lotus']</t>
+  </si>
+  <si>
+    <t>lucky</t>
+  </si>
+  <si>
+    <t>['Lucky', 'LUCKY']</t>
+  </si>
+  <si>
+    <t>lumina</t>
+  </si>
+  <si>
+    <t>['Lumina 露蜜', 'Lumina beauty care']</t>
+  </si>
+  <si>
+    <t>luna</t>
+  </si>
+  <si>
+    <t>['LUNA', 'LUNASOL']</t>
+  </si>
+  <si>
+    <t>magicom</t>
+  </si>
+  <si>
+    <t>['MAGICOM', 'Magicom']</t>
+  </si>
+  <si>
+    <t>mama</t>
+  </si>
+  <si>
+    <t>['MAMA', 'MAMA BUTTER', 'mamalove']</t>
+  </si>
+  <si>
+    <t>mandom</t>
+  </si>
+  <si>
+    <t>['Mandom Beauty', 'MANDOM']</t>
+  </si>
+  <si>
+    <t>mod'shair</t>
+  </si>
+  <si>
+    <t>['mod’s hair', "mod's hair"]</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>['More', 'morelife']</t>
+  </si>
+  <si>
+    <t>naturalbalance</t>
+  </si>
+  <si>
+    <t>['Natural balance', 'Natural Balance']</t>
+  </si>
+  <si>
+    <t>naturalsbywatsons</t>
+  </si>
+  <si>
+    <t>['Naturals', 'Naturals by Watsons']</t>
+  </si>
+  <si>
+    <t>nor.</t>
+  </si>
+  <si>
+    <t>['NOR.', 'North Field']</t>
+  </si>
+  <si>
+    <t>nuby</t>
+  </si>
+  <si>
+    <t>['NUBY', 'Nuby']</t>
+  </si>
+  <si>
+    <t>oneamadana</t>
+  </si>
+  <si>
+    <t>['ONE amadana', 'One amadana']</t>
+  </si>
+  <si>
+    <t>pascual</t>
+  </si>
+  <si>
+    <t>['Pascual', 'PASCUAL']</t>
+  </si>
+  <si>
+    <t>petio</t>
+  </si>
+  <si>
+    <t>['PETIO', 'Petio']</t>
+  </si>
+  <si>
+    <t>pola</t>
+  </si>
+  <si>
+    <t>['Polarstar', 'POLA']</t>
+  </si>
+  <si>
+    <t>pony</t>
+  </si>
+  <si>
+    <t>['PONY', 'PONY MEMEBOX']</t>
+  </si>
+  <si>
+    <t>r.o.c.s</t>
+  </si>
+  <si>
+    <t>['R.O.C.S.', 'R.O.C.S']</t>
+  </si>
+  <si>
+    <t>royalunibrew</t>
+  </si>
+  <si>
+    <t>['Royal Unibrew', 'royal unibrew']</t>
+  </si>
+  <si>
+    <t>saraya</t>
+  </si>
+  <si>
+    <t>['SARAYA', 'saraya']</t>
+  </si>
+  <si>
+    <t>she's</t>
+  </si>
+  <si>
+    <t>["She's", "she's"]</t>
+  </si>
+  <si>
+    <t>sogood</t>
+  </si>
+  <si>
+    <t>['So Good', 'SO GOOD']</t>
+  </si>
+  <si>
+    <t>sparkeau</t>
+  </si>
+  <si>
+    <t>['SPARKEAU', 'Sparkeau']</t>
+  </si>
+  <si>
+    <t>sukin</t>
+  </si>
+  <si>
+    <t>['Sukin', 'sukin']</t>
+  </si>
+  <si>
+    <t>tide</t>
+  </si>
+  <si>
+    <t>['TIDE', 'Tide']</t>
+  </si>
+  <si>
+    <t>toocoolforschool</t>
+  </si>
+  <si>
+    <t>['Too Cool For School', 'too cool for school', 'Too cool for school']</t>
+  </si>
+  <si>
+    <t>viseeavant</t>
+  </si>
+  <si>
+    <t>['VISEE', 'Visée AVANT']</t>
+  </si>
+  <si>
+    <t>vita</t>
+  </si>
+  <si>
+    <t>['vita','VITA']</t>
+  </si>
+  <si>
+    <t>維他盒子vitabox</t>
+  </si>
+  <si>
+    <t>['Vitabox','維他盒子']</t>
+  </si>
+  <si>
+    <t>vv</t>
+  </si>
+  <si>
+    <t>['VV','Viridis virus','美聯社','元氣']</t>
+  </si>
+  <si>
+    <t>八甲田wadakan</t>
+  </si>
+  <si>
+    <t>['WADAKAN','八甲田']</t>
+  </si>
+  <si>
+    <t>薇達wedar</t>
+  </si>
+  <si>
+    <t>['WEDAR','薇達']</t>
+  </si>
+  <si>
+    <t>葉璐芝yr</t>
+  </si>
+  <si>
+    <t>['YR','葉璐芝']</t>
+  </si>
+  <si>
+    <t>yvonnecollection</t>
+  </si>
+  <si>
+    <t>['Yvonne Collection','yvonne collection']</t>
+  </si>
+  <si>
+    <t>za</t>
+  </si>
+  <si>
+    <t>['Za', 'ZA']</t>
+  </si>
+  <si>
+    <t>D-UP</t>
+  </si>
+  <si>
+    <t>['\u200eD-UP', 'D-UP']</t>
+  </si>
+  <si>
+    <t>日立</t>
+  </si>
+  <si>
+    <t>['日立 HITACHI', '日立 ITACHI']</t>
+  </si>
+  <si>
+    <t>日清</t>
+  </si>
+  <si>
+    <t>['日清', '日清 NISSIN']</t>
+  </si>
+  <si>
+    <t>日虹</t>
+  </si>
+  <si>
+    <t>['日虹', '日虹牌']</t>
+  </si>
+  <si>
+    <t>統欣生技</t>
+  </si>
+  <si>
+    <t>['統欣生技', '統欣生物科技']</t>
+  </si>
+  <si>
+    <t>Dr.藝群</t>
+  </si>
+  <si>
+    <t>['Dr. 藝群', 'Dr.藝群']</t>
+  </si>
+  <si>
+    <t>PURE BEAUTY</t>
+  </si>
+  <si>
+    <t>['Pure Beauty', 'PURE BEAUTY']</t>
+  </si>
+  <si>
+    <t>益瑞昇</t>
+  </si>
+  <si>
+    <t>['益瑞昇', '愛瑞雅']</t>
+  </si>
+  <si>
+    <t>卡夫亨氏</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>統一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AB</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>['統一AB','統一 AB']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>統一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>LP33</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>['統一LP33', 'LP33']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一瑞穗</t>
+  </si>
+  <si>
+    <t>['統一瑞穗', '統一瑞穗極制']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>['統一', '統一蜜豆奶', '統一生機', '統一水果牛乳']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>['台塑', '醫之方', '台塑生醫 醫之方', '台塑生醫']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台塑生醫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>dr'sformula</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>['台塑生醫 Dr’s Formula', 'Dr‘s Formula', "Dr's Formula 台塑生醫", "台塑生醫Dr's Formula"]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>['麗美盛', '麗美']</t>
-  </si>
-  <si>
-    <t>寶多福petlife</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>[ '寶多福', '統一寶多福 Petlife']</t>
-  </si>
-  <si>
-    <t>寶絲汀psk</t>
-  </si>
-  <si>
-    <t>['PSK 寶絲汀', 'PSK 深海美肌專家']</t>
-  </si>
-  <si>
-    <t>寶僑ariel</t>
-  </si>
-  <si>
-    <t>['寶僑','Ariel']</t>
-  </si>
-  <si>
-    <t>寶瀅persil</t>
-  </si>
-  <si>
-    <t>['Persil', '寶瀅Persil']</t>
-  </si>
-  <si>
-    <t>耀eau</t>
-  </si>
-  <si>
-    <t>['EAU 耀', '耀 EAU', 'EAU耀']</t>
-  </si>
-  <si>
-    <t>蘇菲娜sofina</t>
-  </si>
-  <si>
-    <t>['蘇菲', 'SOFINA 蘇菲娜']</t>
-  </si>
-  <si>
-    <t>蘋果西打apple</t>
-  </si>
-  <si>
-    <t>['蘋果 Apple', '蘋果西打']</t>
-  </si>
-  <si>
-    <t>贏in-plus</t>
-  </si>
-  <si>
-    <t>['贏 IN-Plus', '贏 IN-PLUS']</t>
-  </si>
-  <si>
-    <t>蘭吉兒l'egere</t>
-  </si>
-  <si>
-    <t>["L'EGERE 蘭吉兒", 'LEGERE 蘭吉兒']</t>
-  </si>
-  <si>
-    <t>蘭蔻lancome</t>
-  </si>
-  <si>
-    <t>['LANCÔME 蘭蔻', 'LANCOME 蘭蔻']</t>
-  </si>
-  <si>
-    <t>蘭韻lalune</t>
-  </si>
-  <si>
-    <t>['la lune 蘭韻', '蘭韻']</t>
-  </si>
-  <si>
-    <t>露遊treewalker</t>
-  </si>
-  <si>
-    <t>['露遊 Treewalker','Tree Walker','TREEWALKER']</t>
-  </si>
-  <si>
-    <t>ahc</t>
-  </si>
-  <si>
-    <t>['AHC','A.H.C']</t>
-  </si>
-  <si>
-    <t>allegrini</t>
-  </si>
-  <si>
-    <t>['ALLEGRINI', 'Allegrini']</t>
-  </si>
-  <si>
-    <t>amino</t>
-  </si>
-  <si>
-    <t>['Amino Mason', 'Amino']</t>
-  </si>
-  <si>
-    <t>apieu</t>
-  </si>
-  <si>
-    <t>['Apieu',"A'PIEU"]</t>
-  </si>
-  <si>
-    <t>aprilskin</t>
-  </si>
-  <si>
-    <t>['APRILSKIN', 'Aprilskin']</t>
-  </si>
-  <si>
-    <t>arctic</t>
-  </si>
-  <si>
-    <t>['Arcticpet', 'ARCTIC']</t>
-  </si>
-  <si>
-    <t>aroma</t>
-  </si>
-  <si>
-    <t>['Aroma zone', 'Aroma']</t>
-  </si>
-  <si>
-    <t>astar</t>
-  </si>
-  <si>
-    <t>['A Star', 'A-Star bones']</t>
-  </si>
-  <si>
-    <t>avalonorganics</t>
-  </si>
-  <si>
-    <t>['AVALON ORGANICS', 'AVALON']</t>
-  </si>
-  <si>
-    <t>bequiet</t>
-  </si>
-  <si>
-    <t>['Be quiet', 'be quiet']</t>
-  </si>
-  <si>
-    <t>bhk's</t>
-  </si>
-  <si>
-    <t>['BHK’s', "BHK's"]</t>
-  </si>
-  <si>
-    <t>bone</t>
-  </si>
-  <si>
-    <t>['BONE', 'BonePlus']</t>
-  </si>
-  <si>
-    <t>bowwow</t>
-  </si>
-  <si>
-    <t>['Bowwow', 'BowWow']</t>
-  </si>
-  <si>
-    <t>catfeet</t>
-  </si>
-  <si>
-    <t>['CatFeet', 'CATFEET']</t>
-  </si>
-  <si>
-    <t>cheers</t>
-  </si>
-  <si>
-    <t>['cheers', 'CheersJelly']</t>
-  </si>
-  <si>
-    <t>chicco</t>
-  </si>
-  <si>
-    <t>['chicco', 'Chicco', 'CHICCO']</t>
-  </si>
-  <si>
-    <t>clover</t>
-  </si>
-  <si>
-    <t>['CLOVER', 'Clover']</t>
-  </si>
-  <si>
-    <t>cocodor</t>
-  </si>
-  <si>
-    <t>['cocodor', 'Cocodor']</t>
-  </si>
-  <si>
-    <t>combo</t>
-  </si>
-  <si>
-    <t>['Combo', 'COMBO']</t>
-  </si>
-  <si>
-    <t>converse</t>
-  </si>
-  <si>
-    <t>['Converse', 'CONVERSE']</t>
-  </si>
-  <si>
-    <t>coolermaster</t>
-  </si>
-  <si>
-    <t>['Cooler Master', 'COOLER MASTER']</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>['Corona', 'CORONA']</t>
-  </si>
-  <si>
-    <t>domo</t>
-  </si>
-  <si>
-    <t>['DOMO', 'Domo']</t>
-  </si>
-  <si>
-    <t>ecostore</t>
-  </si>
-  <si>
-    <t>['ECOS, 'ecostore']</t>
-  </si>
-  <si>
-    <t>etudehouse</t>
-  </si>
-  <si>
-    <t>['ETUDE HOUSE', 'Etude House', 'ETUDE奧斯卡']</t>
-  </si>
-  <si>
-    <t>ezlife</t>
-  </si>
-  <si>
-    <t>['e.l.f.', 'EZlife']</t>
-  </si>
-  <si>
-    <t>farlin</t>
-  </si>
-  <si>
-    <t>['FARLIN', 'Farlin']</t>
-  </si>
-  <si>
-    <t>farmstay</t>
-  </si>
-  <si>
-    <t>['FARM STAY', 'Farm stay']</t>
-  </si>
-  <si>
-    <t>go!</t>
-  </si>
-  <si>
-    <t>['Go!', 'GO!']</t>
-  </si>
-  <si>
-    <t>honeysuckle</t>
-  </si>
-  <si>
-    <t>['honey', 'HONEYSUCKLE']</t>
-  </si>
-  <si>
-    <t>infothink</t>
-  </si>
-  <si>
-    <t>['InfoThink', 'infoThink']</t>
-  </si>
-  <si>
-    <t>johnmastersorganics</t>
-  </si>
-  <si>
-    <t>['John Masters Organics', 'john masters organics']</t>
-  </si>
-  <si>
-    <t>jomalone</t>
-  </si>
-  <si>
-    <t>['Jo Malone', 'JO MALONE']</t>
-  </si>
-  <si>
-    <t>kirin</t>
-  </si>
-  <si>
-    <t>['Kirin', 'KIRIN']</t>
-  </si>
-  <si>
-    <t>lestar</t>
-  </si>
-  <si>
-    <t>['lestar', 'Lestar']</t>
-  </si>
-  <si>
-    <t>loshi</t>
-  </si>
-  <si>
-    <t>['loshi', 'Loshi']</t>
-  </si>
-  <si>
-    <t>lotus</t>
-  </si>
-  <si>
-    <t>['LOTUS', 'Lotus']</t>
-  </si>
-  <si>
-    <t>lucky</t>
-  </si>
-  <si>
-    <t>['Lucky', 'LUCKY']</t>
-  </si>
-  <si>
-    <t>lumina</t>
-  </si>
-  <si>
-    <t>['Lumina 露蜜', 'Lumina beauty care']</t>
-  </si>
-  <si>
-    <t>luna</t>
-  </si>
-  <si>
-    <t>['LUNA', 'LUNASOL']</t>
-  </si>
-  <si>
-    <t>magicom</t>
-  </si>
-  <si>
-    <t>['MAGICOM', 'Magicom']</t>
-  </si>
-  <si>
-    <t>mama</t>
-  </si>
-  <si>
-    <t>['MAMA', 'MAMA BUTTER', 'mamalove']</t>
-  </si>
-  <si>
-    <t>mandom</t>
-  </si>
-  <si>
-    <t>['Mandom Beauty', 'MANDOM']</t>
-  </si>
-  <si>
-    <t>mod'shair</t>
-  </si>
-  <si>
-    <t>['mod’s hair', "mod's hair"]</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>['More', 'morelife']</t>
-  </si>
-  <si>
-    <t>naturalbalance</t>
-  </si>
-  <si>
-    <t>['Natural balance', 'Natural Balance']</t>
-  </si>
-  <si>
-    <t>naturalsbywatsons</t>
-  </si>
-  <si>
-    <t>['Naturals', 'Naturals by Watsons']</t>
-  </si>
-  <si>
-    <t>nor.</t>
-  </si>
-  <si>
-    <t>['NOR.', 'North Field']</t>
-  </si>
-  <si>
-    <t>nuby</t>
-  </si>
-  <si>
-    <t>['NUBY', 'Nuby']</t>
-  </si>
-  <si>
-    <t>oneamadana</t>
-  </si>
-  <si>
-    <t>['ONE amadana', 'One amadana']</t>
-  </si>
-  <si>
-    <t>pascual</t>
-  </si>
-  <si>
-    <t>['Pascual', 'PASCUAL']</t>
-  </si>
-  <si>
-    <t>petio</t>
-  </si>
-  <si>
-    <t>['PETIO', 'Petio']</t>
-  </si>
-  <si>
-    <t>pola</t>
-  </si>
-  <si>
-    <t>['Polarstar', 'POLA']</t>
-  </si>
-  <si>
-    <t>pony</t>
-  </si>
-  <si>
-    <t>['PONY', 'PONY MEMEBOX']</t>
-  </si>
-  <si>
-    <t>r.o.c.s</t>
-  </si>
-  <si>
-    <t>['R.O.C.S.', 'R.O.C.S']</t>
-  </si>
-  <si>
-    <t>royalunibrew</t>
-  </si>
-  <si>
-    <t>['Royal Unibrew', 'royal unibrew']</t>
-  </si>
-  <si>
-    <t>saraya</t>
-  </si>
-  <si>
-    <t>['SARAYA', 'saraya']</t>
-  </si>
-  <si>
-    <t>she's</t>
-  </si>
-  <si>
-    <t>["She's", "she's"]</t>
-  </si>
-  <si>
-    <t>sogood</t>
-  </si>
-  <si>
-    <t>['So Good', 'SO GOOD']</t>
-  </si>
-  <si>
-    <t>sparkeau</t>
-  </si>
-  <si>
-    <t>['SPARKEAU', 'Sparkeau']</t>
-  </si>
-  <si>
-    <t>sukin</t>
-  </si>
-  <si>
-    <t>['Sukin', 'sukin']</t>
-  </si>
-  <si>
-    <t>tide</t>
-  </si>
-  <si>
-    <t>['TIDE', 'Tide']</t>
-  </si>
-  <si>
-    <t>toocoolforschool</t>
-  </si>
-  <si>
-    <t>['Too Cool For School', 'too cool for school', 'Too cool for school']</t>
-  </si>
-  <si>
-    <t>viseeavant</t>
-  </si>
-  <si>
-    <t>['VISEE', 'Visée AVANT']</t>
-  </si>
-  <si>
-    <t>vita</t>
-  </si>
-  <si>
-    <t>['vita','VITA']</t>
-  </si>
-  <si>
-    <t>維他盒子vitabox</t>
-  </si>
-  <si>
-    <t>['Vitabox','維他盒子']</t>
-  </si>
-  <si>
-    <t>vv</t>
-  </si>
-  <si>
-    <t>['VV','Viridis virus','美聯社','元氣']</t>
-  </si>
-  <si>
-    <t>八甲田wadakan</t>
-  </si>
-  <si>
-    <t>['WADAKAN','八甲田']</t>
-  </si>
-  <si>
-    <t>薇達wedar</t>
-  </si>
-  <si>
-    <t>['WEDAR','薇達']</t>
-  </si>
-  <si>
-    <t>葉璐芝yr</t>
-  </si>
-  <si>
-    <t>['YR','葉璐芝']</t>
-  </si>
-  <si>
-    <t>yvonnecollection</t>
-  </si>
-  <si>
-    <t>['Yvonne Collection','yvonne collection']</t>
-  </si>
-  <si>
-    <t>za</t>
-  </si>
-  <si>
-    <t>['Za', 'ZA']</t>
-  </si>
-  <si>
-    <t>D-UP</t>
-  </si>
-  <si>
-    <t>['\u200eD-UP', 'D-UP']</t>
-  </si>
-  <si>
-    <t>日立</t>
-  </si>
-  <si>
-    <t>['日立 HITACHI', '日立 ITACHI']</t>
-  </si>
-  <si>
-    <t>日清</t>
-  </si>
-  <si>
-    <t>['日清', '日清 NISSIN']</t>
-  </si>
-  <si>
-    <t>日虹</t>
-  </si>
-  <si>
-    <t>['日虹', '日虹牌']</t>
-  </si>
-  <si>
-    <t>統欣生技</t>
-  </si>
-  <si>
-    <t>['統欣生技', '統欣生物科技']</t>
-  </si>
-  <si>
-    <t>Dr.藝群</t>
-  </si>
-  <si>
-    <t>['Dr. 藝群', 'Dr.藝群']</t>
-  </si>
-  <si>
-    <t>PURE BEAUTY</t>
-  </si>
-  <si>
-    <t>['Pure Beauty', 'PURE BEAUTY']</t>
-  </si>
-  <si>
-    <t>益瑞昇</t>
-  </si>
-  <si>
-    <t>['益瑞昇', '愛瑞雅']</t>
-  </si>
-  <si>
-    <t>卡夫亨氏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>['麥斯威爾 Maxwell', '卡夫亨氏']</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2869,6 +2953,41 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2898,44 +3017,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2946,10 +3070,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2987,71 +3111,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3079,7 +3203,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -3102,11 +3226,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -3115,13 +3239,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3131,7 +3255,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -3140,7 +3264,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3149,7 +3273,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3157,10 +3281,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -3225,22 +3349,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C469"/>
+  <dimension ref="A1:C471"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="C467" sqref="C467"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="45.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.09765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.09765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.69921875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3251,7 +3377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -3262,7 +3388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3273,7 +3399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3284,7 +3410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3295,7 +3421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3306,7 +3432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3317,7 +3443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -3328,7 +3454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -3339,7 +3465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -3350,7 +3476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -3361,7 +3487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -3372,7 +3498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -3383,7 +3509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -3394,7 +3520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -3405,7 +3531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -3416,7 +3542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -3427,7 +3553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -3438,7 +3564,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -3449,7 +3575,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -3460,7 +3586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -3471,7 +3597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -3482,7 +3608,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -3493,7 +3619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -3504,7 +3630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -3515,7 +3641,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -3526,7 +3652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -3537,7 +3663,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -3548,7 +3674,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3559,7 +3685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3570,7 +3696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3581,7 +3707,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3592,7 +3718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3603,7 +3729,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3614,7 +3740,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3625,7 +3751,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3636,7 +3762,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3647,7 +3773,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3658,7 +3784,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3669,7 +3795,7 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3680,7 +3806,7 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3691,7 +3817,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3702,7 +3828,7 @@
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3713,7 +3839,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3721,4685 +3847,4708 @@
         <v>87</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>89</v>
+      <c r="B45" s="10" t="s">
+        <v>938</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>82</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>83</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>84</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>85</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>129</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>130</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>132</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>133</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>136</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>137</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>139</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>141</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>142</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>143</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <v>145</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>148</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>150</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>151</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <v>152</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>153</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
         <v>154</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <v>155</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
         <v>156</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
         <v>157</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
         <v>158</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
         <v>159</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
         <v>160</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
         <v>161</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
         <v>162</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
         <v>163</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
         <v>165</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
         <v>166</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
         <v>167</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
         <v>168</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
         <v>169</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
         <v>170</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
         <v>171</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
         <v>172</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
         <v>174</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
         <v>175</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
         <v>176</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
         <v>177</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
         <v>178</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
         <v>179</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
         <v>180</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
         <v>182</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4">
         <v>183</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
         <v>184</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4">
         <v>185</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
         <v>188</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4">
         <v>189</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
         <v>190</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4">
         <v>191</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
         <v>193</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4">
         <v>194</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4">
         <v>195</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4">
         <v>196</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
         <v>197</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4">
         <v>199</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4">
         <v>200</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4">
         <v>201</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4">
         <v>204</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4">
         <v>206</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4">
         <v>207</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4">
         <v>208</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4">
         <v>209</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4">
         <v>212</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4">
         <v>213</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4">
         <v>214</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4">
         <v>215</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4">
         <v>216</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4">
         <v>217</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
         <v>218</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4">
         <v>219</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4">
         <v>220</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4">
         <v>222</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4">
         <v>223</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4">
         <v>224</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4">
         <v>225</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="4">
         <v>226</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4">
         <v>227</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4">
         <v>228</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="4">
         <v>229</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="4">
         <v>230</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4">
         <v>231</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="4">
         <v>232</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4">
         <v>233</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4">
         <v>234</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="4">
         <v>235</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="4">
         <v>236</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="4">
         <v>238</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="4">
         <v>240</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="4">
         <v>242</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="4">
         <v>243</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="4">
         <v>244</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="4">
         <v>245</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="4">
         <v>246</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="4">
         <v>247</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="4">
         <v>248</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="4">
         <v>249</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="4">
         <v>250</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="4">
         <v>251</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="4">
         <v>252</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="4">
         <v>253</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="4">
         <v>254</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="4">
         <v>255</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="4">
         <v>256</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="4">
         <v>259</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="4">
         <v>260</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="4">
         <v>261</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="4">
         <v>262</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="4">
         <v>263</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="4">
         <v>264</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="4">
         <v>265</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="4">
         <v>266</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="4">
         <v>267</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="4">
         <v>268</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="4">
         <v>269</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="4">
         <v>270</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="4">
         <v>272</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="4">
         <v>274</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="4">
         <v>277</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="4">
         <v>278</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="4">
         <v>279</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="4">
         <v>280</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="4">
         <v>281</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="4">
         <v>283</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="4">
         <v>284</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="4">
         <v>285</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="4">
         <v>286</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="4">
         <v>287</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="4">
+        <v>288</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="4">
+        <v>290</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>932</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="4">
+        <v>289</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="4">
+        <v>292</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="4">
+        <v>293</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C256" s="3" t="s">
         <v>502</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
-      <c r="A252" s="4">
-        <v>292</v>
-      </c>
-      <c r="B252" s="2" t="s">
+    <row r="257" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="4">
+        <v>294</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C257" s="3" t="s">
         <v>504</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
-      <c r="A253" s="4">
-        <v>293</v>
-      </c>
-      <c r="B253" s="2" t="s">
+    <row r="258" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="4">
+        <v>295</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C258" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
-      <c r="A254" s="4">
-        <v>294</v>
-      </c>
-      <c r="B254" s="2" t="s">
+    <row r="259" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="4">
+        <v>296</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C259" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
-      <c r="A255" s="4">
-        <v>295</v>
-      </c>
-      <c r="B255" s="2" t="s">
+    <row r="260" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="4">
+        <v>297</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C260" s="3" t="s">
         <v>510</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
-      <c r="A256" s="4">
-        <v>296</v>
-      </c>
-      <c r="B256" s="2" t="s">
+    <row r="261" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="4">
+        <v>298</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C261" s="3" t="s">
         <v>512</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
-      <c r="A257" s="4">
-        <v>297</v>
-      </c>
-      <c r="B257" s="2" t="s">
+    <row r="262" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="4">
+        <v>299</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C262" s="3" t="s">
         <v>514</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
-      <c r="A258" s="4">
-        <v>298</v>
-      </c>
-      <c r="B258" s="2" t="s">
+    <row r="263" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="4">
+        <v>300</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C263" s="3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
-      <c r="A259" s="4">
-        <v>299</v>
-      </c>
-      <c r="B259" s="2" t="s">
+    <row r="264" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="4">
+        <v>301</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C264" s="3" t="s">
         <v>518</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
-      <c r="A260" s="4">
-        <v>300</v>
-      </c>
-      <c r="B260" s="2" t="s">
+    <row r="265" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="4">
+        <v>302</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C265" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
-      <c r="A261" s="4">
-        <v>301</v>
-      </c>
-      <c r="B261" s="2" t="s">
+    <row r="266" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="4">
+        <v>303</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C266" s="3" t="s">
         <v>522</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
-      <c r="A262" s="4">
-        <v>302</v>
-      </c>
-      <c r="B262" s="2" t="s">
+    <row r="267" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="4">
+        <v>304</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="C267" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
-      <c r="A263" s="4">
-        <v>303</v>
-      </c>
-      <c r="B263" s="2" t="s">
+    <row r="268" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="4">
+        <v>305</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C268" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
-      <c r="A264" s="4">
-        <v>304</v>
-      </c>
-      <c r="B264" s="2" t="s">
+    <row r="269" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="4">
+        <v>306</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C269" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
-      <c r="A265" s="4">
-        <v>305</v>
-      </c>
-      <c r="B265" s="2" t="s">
+    <row r="270" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="4">
+        <v>307</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C270" s="3" t="s">
         <v>530</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
-      <c r="A266" s="4">
-        <v>306</v>
-      </c>
-      <c r="B266" s="2" t="s">
+    <row r="271" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="4">
+        <v>309</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C271" s="3" t="s">
         <v>532</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
-      <c r="A267" s="4">
-        <v>307</v>
-      </c>
-      <c r="B267" s="2" t="s">
+    <row r="272" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="4">
+        <v>310</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C272" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
-      <c r="A268" s="4">
-        <v>309</v>
-      </c>
-      <c r="B268" s="2" t="s">
+    <row r="273" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="4">
+        <v>311</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C273" s="3" t="s">
         <v>536</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
-      <c r="A269" s="4">
-        <v>310</v>
-      </c>
-      <c r="B269" s="2" t="s">
+    <row r="274" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="4">
+        <v>314</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C274" s="3" t="s">
         <v>538</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
-      <c r="A270" s="4">
-        <v>311</v>
-      </c>
-      <c r="B270" s="2" t="s">
+    <row r="275" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="4">
+        <v>315</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C275" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
-      <c r="A271" s="4">
-        <v>314</v>
-      </c>
-      <c r="B271" s="2" t="s">
+    <row r="276" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="4">
+        <v>317</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C276" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
-      <c r="A272" s="4">
-        <v>315</v>
-      </c>
-      <c r="B272" s="2" t="s">
+    <row r="277" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="4">
+        <v>318</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C277" s="3" t="s">
         <v>544</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
-      <c r="A273" s="4">
-        <v>317</v>
-      </c>
-      <c r="B273" s="2" t="s">
+    <row r="278" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="4">
+        <v>319</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C278" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
-      <c r="A274" s="4">
-        <v>318</v>
-      </c>
-      <c r="B274" s="2" t="s">
+    <row r="279" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="4">
+        <v>320</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="C279" s="3" t="s">
         <v>548</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
-      <c r="A275" s="4">
-        <v>319</v>
-      </c>
-      <c r="B275" s="2" t="s">
+    <row r="280" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="4">
+        <v>322</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C280" s="3" t="s">
         <v>550</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
-      <c r="A276" s="4">
-        <v>320</v>
-      </c>
-      <c r="B276" s="2" t="s">
+    <row r="281" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="4">
+        <v>323</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C281" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
-      <c r="A277" s="4">
-        <v>322</v>
-      </c>
-      <c r="B277" s="2" t="s">
+    <row r="282" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="4">
+        <v>324</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C282" s="3" t="s">
         <v>554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
-      <c r="A278" s="4">
-        <v>323</v>
-      </c>
-      <c r="B278" s="2" t="s">
+    <row r="283" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="4">
+        <v>325</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C283" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
-      <c r="A279" s="4">
-        <v>324</v>
-      </c>
-      <c r="B279" s="2" t="s">
+    <row r="284" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="4">
+        <v>327</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="C284" s="3" t="s">
         <v>558</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
-      <c r="A280" s="4">
-        <v>325</v>
-      </c>
-      <c r="B280" s="2" t="s">
+    <row r="285" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="4">
+        <v>329</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C285" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
-      <c r="A281" s="4">
-        <v>327</v>
-      </c>
-      <c r="B281" s="2" t="s">
+    <row r="286" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="4">
+        <v>330</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="C286" s="3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
-      <c r="A282" s="4">
-        <v>329</v>
-      </c>
-      <c r="B282" s="2" t="s">
+    <row r="287" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="4">
+        <v>331</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C287" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
-      <c r="A283" s="4">
-        <v>330</v>
-      </c>
-      <c r="B283" s="2" t="s">
+    <row r="288" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="4">
+        <v>334</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="C288" s="3" t="s">
         <v>566</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
-      <c r="A284" s="4">
-        <v>331</v>
-      </c>
-      <c r="B284" s="2" t="s">
+    <row r="289" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="4">
+        <v>335</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C289" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
-      <c r="A285" s="4">
-        <v>334</v>
-      </c>
-      <c r="B285" s="2" t="s">
+    <row r="290" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="4">
+        <v>337</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="C290" s="3" t="s">
         <v>570</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
-      <c r="A286" s="4">
-        <v>335</v>
-      </c>
-      <c r="B286" s="2" t="s">
+    <row r="291" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="4">
+        <v>338</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C291" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
-      <c r="A287" s="4">
-        <v>337</v>
-      </c>
-      <c r="B287" s="2" t="s">
+    <row r="292" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="4">
+        <v>339</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C292" s="3" t="s">
         <v>574</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
-      <c r="A288" s="4">
-        <v>338</v>
-      </c>
-      <c r="B288" s="2" t="s">
+    <row r="293" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="4">
+        <v>340</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="C293" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
-      <c r="A289" s="4">
-        <v>339</v>
-      </c>
-      <c r="B289" s="2" t="s">
+    <row r="294" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="4">
+        <v>341</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C294" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
-      <c r="A290" s="4">
-        <v>340</v>
-      </c>
-      <c r="B290" s="2" t="s">
+    <row r="295" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="4">
+        <v>342</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C295" s="3" t="s">
         <v>580</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
-      <c r="A291" s="4">
-        <v>341</v>
-      </c>
-      <c r="B291" s="2" t="s">
+    <row r="296" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="4">
+        <v>343</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C296" s="3" t="s">
         <v>582</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
-      <c r="A292" s="4">
-        <v>342</v>
-      </c>
-      <c r="B292" s="2" t="s">
+    <row r="297" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="4">
+        <v>345</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C297" s="3" t="s">
         <v>584</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
-      <c r="A293" s="4">
-        <v>343</v>
-      </c>
-      <c r="B293" s="2" t="s">
+    <row r="298" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="4">
+        <v>346</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C298" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
-      <c r="A294" s="4">
-        <v>345</v>
-      </c>
-      <c r="B294" s="2" t="s">
+    <row r="299" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="4">
+        <v>347</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C299" s="3" t="s">
         <v>588</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
-      <c r="A295" s="4">
-        <v>346</v>
-      </c>
-      <c r="B295" s="2" t="s">
+    <row r="300" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="4">
+        <v>348</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="C300" s="3" t="s">
         <v>590</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
-      <c r="A296" s="4">
-        <v>347</v>
-      </c>
-      <c r="B296" s="2" t="s">
+    <row r="301" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="4">
+        <v>349</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C301" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
-      <c r="A297" s="4">
-        <v>348</v>
-      </c>
-      <c r="B297" s="2" t="s">
+    <row r="302" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="4">
+        <v>350</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C302" s="3" t="s">
         <v>594</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
-      <c r="A298" s="4">
-        <v>349</v>
-      </c>
-      <c r="B298" s="2" t="s">
+    <row r="303" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="4">
+        <v>351</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="C303" s="3" t="s">
         <v>596</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
-      <c r="A299" s="4">
-        <v>350</v>
-      </c>
-      <c r="B299" s="2" t="s">
+    <row r="304" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="4">
+        <v>352</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C304" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
-      <c r="A300" s="4">
-        <v>351</v>
-      </c>
-      <c r="B300" s="2" t="s">
+    <row r="305" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="4">
+        <v>353</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C305" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
-      <c r="A301" s="4">
-        <v>352</v>
-      </c>
-      <c r="B301" s="2" t="s">
+    <row r="306" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="4">
+        <v>354</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C306" s="3" t="s">
         <v>602</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
-      <c r="A302" s="4">
-        <v>353</v>
-      </c>
-      <c r="B302" s="2" t="s">
+    <row r="307" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="4">
+        <v>355</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C307" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
-      <c r="A303" s="4">
-        <v>354</v>
-      </c>
-      <c r="B303" s="2" t="s">
+    <row r="308" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="4">
+        <v>358</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C308" s="3" t="s">
         <v>606</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
-      <c r="A304" s="4">
-        <v>355</v>
-      </c>
-      <c r="B304" s="2" t="s">
+    <row r="309" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="4">
+        <v>359</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C309" s="3" t="s">
         <v>608</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
-      <c r="A305" s="4">
-        <v>358</v>
-      </c>
-      <c r="B305" s="2" t="s">
+    <row r="310" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="4">
+        <v>360</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C310" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
-      <c r="A306" s="4">
-        <v>359</v>
-      </c>
-      <c r="B306" s="2" t="s">
+    <row r="311" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="4">
+        <v>362</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="C311" s="3" t="s">
         <v>612</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
-      <c r="A307" s="4">
-        <v>360</v>
-      </c>
-      <c r="B307" s="2" t="s">
+    <row r="312" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="4">
+        <v>363</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="C312" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
-      <c r="A308" s="4">
-        <v>362</v>
-      </c>
-      <c r="B308" s="2" t="s">
+    <row r="313" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="4">
+        <v>364</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="C313" s="3" t="s">
         <v>616</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
-      <c r="A309" s="4">
-        <v>363</v>
-      </c>
-      <c r="B309" s="2" t="s">
+    <row r="314" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="4">
+        <v>365</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="C314" s="3" t="s">
         <v>618</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
-      <c r="A310" s="4">
-        <v>364</v>
-      </c>
-      <c r="B310" s="2" t="s">
+    <row r="315" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="4">
+        <v>366</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="C315" s="3" t="s">
         <v>620</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
-      <c r="A311" s="4">
-        <v>365</v>
-      </c>
-      <c r="B311" s="2" t="s">
+    <row r="316" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="4">
+        <v>367</v>
+      </c>
+      <c r="B316" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="C316" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
-      <c r="A312" s="4">
-        <v>366</v>
-      </c>
-      <c r="B312" s="2" t="s">
+    <row r="317" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="4">
+        <v>368</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="C317" s="3" t="s">
         <v>624</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
-      <c r="A313" s="4">
-        <v>367</v>
-      </c>
-      <c r="B313" s="2" t="s">
+    <row r="318" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="4">
+        <v>369</v>
+      </c>
+      <c r="B318" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C318" s="3" t="s">
         <v>626</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
-      <c r="A314" s="4">
-        <v>368</v>
-      </c>
-      <c r="B314" s="2" t="s">
+    <row r="319" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="4">
+        <v>370</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="C319" s="3" t="s">
         <v>628</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
-      <c r="A315" s="4">
-        <v>369</v>
-      </c>
-      <c r="B315" s="2" t="s">
+    <row r="320" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="4">
+        <v>372</v>
+      </c>
+      <c r="B320" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="C320" s="3" t="s">
         <v>630</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
-      <c r="A316" s="4">
-        <v>370</v>
-      </c>
-      <c r="B316" s="2" t="s">
+    <row r="321" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="4">
+        <v>373</v>
+      </c>
+      <c r="B321" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C321" s="3" t="s">
         <v>632</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
-      <c r="A317" s="4">
-        <v>372</v>
-      </c>
-      <c r="B317" s="2" t="s">
+    <row r="322" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="4">
+        <v>374</v>
+      </c>
+      <c r="B322" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C322" s="3" t="s">
         <v>634</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
-      <c r="A318" s="4">
-        <v>373</v>
-      </c>
-      <c r="B318" s="2" t="s">
+    <row r="323" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="4">
+        <v>375</v>
+      </c>
+      <c r="B323" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C323" s="3" t="s">
         <v>636</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
-      <c r="A319" s="4">
-        <v>374</v>
-      </c>
-      <c r="B319" s="2" t="s">
+    <row r="324" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="4">
+        <v>376</v>
+      </c>
+      <c r="B324" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C324" s="3" t="s">
         <v>638</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
-      <c r="A320" s="4">
-        <v>375</v>
-      </c>
-      <c r="B320" s="2" t="s">
+    <row r="325" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="4">
+        <v>377</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C325" s="3" t="s">
         <v>640</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
-      <c r="A321" s="4">
-        <v>376</v>
-      </c>
-      <c r="B321" s="2" t="s">
+    <row r="326" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="4">
+        <v>378</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="C326" s="3" t="s">
         <v>642</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
-      <c r="A322" s="4">
-        <v>377</v>
-      </c>
-      <c r="B322" s="2" t="s">
+    <row r="327" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="4">
+        <v>379</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C327" s="3" t="s">
         <v>644</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
-      <c r="A323" s="4">
-        <v>378</v>
-      </c>
-      <c r="B323" s="2" t="s">
+    <row r="328" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="4">
+        <v>380</v>
+      </c>
+      <c r="B328" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C328" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
-      <c r="A324" s="4">
-        <v>379</v>
-      </c>
-      <c r="B324" s="2" t="s">
+    <row r="329" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="4">
+        <v>381</v>
+      </c>
+      <c r="B329" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C329" s="3" t="s">
         <v>648</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
-      <c r="A325" s="4">
-        <v>380</v>
-      </c>
-      <c r="B325" s="2" t="s">
+    <row r="330" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="4">
+        <v>382</v>
+      </c>
+      <c r="B330" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="C330" s="3" t="s">
         <v>650</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
-      <c r="A326" s="4">
-        <v>381</v>
-      </c>
-      <c r="B326" s="2" t="s">
+    <row r="331" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="4">
+        <v>383</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="C331" s="3" t="s">
         <v>652</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
-      <c r="A327" s="4">
-        <v>382</v>
-      </c>
-      <c r="B327" s="2" t="s">
+    <row r="332" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="4">
+        <v>384</v>
+      </c>
+      <c r="B332" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="C332" s="3" t="s">
         <v>654</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
-      <c r="A328" s="4">
-        <v>383</v>
-      </c>
-      <c r="B328" s="2" t="s">
+    <row r="333" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="4">
+        <v>385</v>
+      </c>
+      <c r="B333" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="C333" s="3" t="s">
         <v>656</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
-      <c r="A329" s="4">
-        <v>384</v>
-      </c>
-      <c r="B329" s="2" t="s">
+    <row r="334" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="4">
+        <v>386</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C334" s="3" t="s">
         <v>658</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
-      <c r="A330" s="4">
-        <v>385</v>
-      </c>
-      <c r="B330" s="2" t="s">
+    <row r="335" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="4">
+        <v>387</v>
+      </c>
+      <c r="B335" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="C335" s="3" t="s">
         <v>660</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
-      <c r="A331" s="4">
-        <v>386</v>
-      </c>
-      <c r="B331" s="2" t="s">
+    <row r="336" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="4">
+        <v>388</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C336" s="3" t="s">
         <v>662</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
-      <c r="A332" s="4">
-        <v>387</v>
-      </c>
-      <c r="B332" s="2" t="s">
+    <row r="337" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="4">
+        <v>389</v>
+      </c>
+      <c r="B337" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C337" s="3" t="s">
         <v>664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
-      <c r="A333" s="4">
-        <v>388</v>
-      </c>
-      <c r="B333" s="2" t="s">
+    <row r="338" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="4">
+        <v>390</v>
+      </c>
+      <c r="B338" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="C338" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
-      <c r="A334" s="4">
-        <v>389</v>
-      </c>
-      <c r="B334" s="2" t="s">
+    <row r="339" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="4">
+        <v>392</v>
+      </c>
+      <c r="B339" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C339" s="3" t="s">
         <v>668</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
-      <c r="A335" s="4">
-        <v>390</v>
-      </c>
-      <c r="B335" s="2" t="s">
+    <row r="340" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="4">
+        <v>393</v>
+      </c>
+      <c r="B340" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="C340" s="3" t="s">
         <v>670</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
-      <c r="A336" s="4">
-        <v>392</v>
-      </c>
-      <c r="B336" s="2" t="s">
+    <row r="341" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="4">
+        <v>394</v>
+      </c>
+      <c r="B341" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="C341" s="3" t="s">
         <v>672</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
-      <c r="A337" s="4">
-        <v>393</v>
-      </c>
-      <c r="B337" s="2" t="s">
+    <row r="342" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="4">
+        <v>395</v>
+      </c>
+      <c r="B342" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="C342" s="3" t="s">
         <v>674</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
-      <c r="A338" s="4">
-        <v>394</v>
-      </c>
-      <c r="B338" s="2" t="s">
+    <row r="343" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="4">
+        <v>396</v>
+      </c>
+      <c r="B343" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="C343" s="3" t="s">
         <v>676</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
-      <c r="A339" s="4">
-        <v>395</v>
-      </c>
-      <c r="B339" s="2" t="s">
+    <row r="344" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="4">
+        <v>397</v>
+      </c>
+      <c r="B344" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="C344" s="3" t="s">
         <v>678</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
-      <c r="A340" s="4">
-        <v>396</v>
-      </c>
-      <c r="B340" s="2" t="s">
+    <row r="345" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="4">
+        <v>398</v>
+      </c>
+      <c r="B345" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="C345" s="3" t="s">
         <v>680</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
-      <c r="A341" s="4">
-        <v>397</v>
-      </c>
-      <c r="B341" s="2" t="s">
+    <row r="346" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="4">
+        <v>399</v>
+      </c>
+      <c r="B346" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="C346" s="3" t="s">
         <v>682</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
-      <c r="A342" s="4">
-        <v>398</v>
-      </c>
-      <c r="B342" s="2" t="s">
+    <row r="347" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="4">
+        <v>400</v>
+      </c>
+      <c r="B347" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="C347" s="3" t="s">
         <v>684</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
-      <c r="A343" s="4">
-        <v>399</v>
-      </c>
-      <c r="B343" s="2" t="s">
+    <row r="348" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="4">
+        <v>401</v>
+      </c>
+      <c r="B348" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="C348" s="3" t="s">
         <v>686</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
-      <c r="A344" s="4">
-        <v>400</v>
-      </c>
-      <c r="B344" s="2" t="s">
+    <row r="349" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="4">
+        <v>402</v>
+      </c>
+      <c r="B349" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="C349" s="3" t="s">
         <v>688</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
-      <c r="A345" s="4">
-        <v>401</v>
-      </c>
-      <c r="B345" s="2" t="s">
+    <row r="350" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="4">
+        <v>403</v>
+      </c>
+      <c r="B350" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="C345" s="3" t="s">
+      <c r="C350" s="3" t="s">
         <v>690</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
-      <c r="A346" s="4">
-        <v>402</v>
-      </c>
-      <c r="B346" s="2" t="s">
+    <row r="351" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="4">
+        <v>404</v>
+      </c>
+      <c r="B351" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="C351" s="3" t="s">
         <v>692</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
-      <c r="A347" s="4">
-        <v>403</v>
-      </c>
-      <c r="B347" s="2" t="s">
+    <row r="352" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="4">
+        <v>406</v>
+      </c>
+      <c r="B352" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="C347" s="3" t="s">
+      <c r="C352" s="3" t="s">
         <v>694</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
-      <c r="A348" s="4">
-        <v>404</v>
-      </c>
-      <c r="B348" s="2" t="s">
+    <row r="353" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="4">
+        <v>407</v>
+      </c>
+      <c r="B353" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="C348" s="3" t="s">
+      <c r="C353" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75">
-      <c r="A349" s="4">
-        <v>406</v>
-      </c>
-      <c r="B349" s="2" t="s">
+    <row r="354" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="4">
+        <v>408</v>
+      </c>
+      <c r="B354" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="C349" s="3" t="s">
+      <c r="C354" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75">
-      <c r="A350" s="4">
-        <v>407</v>
-      </c>
-      <c r="B350" s="2" t="s">
+    <row r="355" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="4">
+        <v>409</v>
+      </c>
+      <c r="B355" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="C350" s="3" t="s">
+      <c r="C355" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75">
-      <c r="A351" s="4">
-        <v>408</v>
-      </c>
-      <c r="B351" s="2" t="s">
+    <row r="356" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="4">
+        <v>410</v>
+      </c>
+      <c r="B356" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="C351" s="3" t="s">
+      <c r="C356" s="3" t="s">
         <v>702</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75">
-      <c r="A352" s="4">
-        <v>409</v>
-      </c>
-      <c r="B352" s="2" t="s">
+    <row r="357" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="4">
+        <v>412</v>
+      </c>
+      <c r="B357" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="C352" s="3" t="s">
+      <c r="C357" s="3" t="s">
         <v>704</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
-      <c r="A353" s="4">
-        <v>410</v>
-      </c>
-      <c r="B353" s="2" t="s">
+    <row r="358" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="4">
+        <v>413</v>
+      </c>
+      <c r="B358" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="C353" s="3" t="s">
+      <c r="C358" s="3" t="s">
         <v>706</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
-      <c r="A354" s="4">
-        <v>412</v>
-      </c>
-      <c r="B354" s="2" t="s">
+    <row r="359" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="4">
+        <v>414</v>
+      </c>
+      <c r="B359" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="C354" s="3" t="s">
+      <c r="C359" s="3" t="s">
         <v>708</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
-      <c r="A355" s="4">
-        <v>413</v>
-      </c>
-      <c r="B355" s="2" t="s">
+    <row r="360" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="4">
+        <v>415</v>
+      </c>
+      <c r="B360" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="C355" s="3" t="s">
+      <c r="C360" s="3" t="s">
         <v>710</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75">
-      <c r="A356" s="4">
-        <v>414</v>
-      </c>
-      <c r="B356" s="2" t="s">
+    <row r="361" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="4">
+        <v>416</v>
+      </c>
+      <c r="B361" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="C356" s="3" t="s">
+      <c r="C361" s="3" t="s">
         <v>712</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
-      <c r="A357" s="4">
-        <v>415</v>
-      </c>
-      <c r="B357" s="2" t="s">
+    <row r="362" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="4">
+        <v>417</v>
+      </c>
+      <c r="B362" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="C357" s="3" t="s">
+      <c r="C362" s="3" t="s">
         <v>714</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75">
-      <c r="A358" s="4">
-        <v>416</v>
-      </c>
-      <c r="B358" s="2" t="s">
+    <row r="363" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="4">
+        <v>418</v>
+      </c>
+      <c r="B363" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="C358" s="3" t="s">
+      <c r="C363" s="3" t="s">
         <v>716</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75">
-      <c r="A359" s="4">
-        <v>417</v>
-      </c>
-      <c r="B359" s="2" t="s">
+    <row r="364" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="4">
+        <v>419</v>
+      </c>
+      <c r="B364" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="C359" s="3" t="s">
+      <c r="C364" s="3" t="s">
         <v>718</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
-      <c r="A360" s="4">
-        <v>418</v>
-      </c>
-      <c r="B360" s="2" t="s">
+    <row r="365" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="4">
+        <v>420</v>
+      </c>
+      <c r="B365" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C360" s="3" t="s">
+      <c r="C365" s="3" t="s">
         <v>720</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75">
-      <c r="A361" s="4">
-        <v>419</v>
-      </c>
-      <c r="B361" s="2" t="s">
+    <row r="366" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A366" s="4">
+        <v>422</v>
+      </c>
+      <c r="B366" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="C361" s="3" t="s">
+      <c r="C366" s="3" t="s">
         <v>722</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
-      <c r="A362" s="4">
-        <v>420</v>
-      </c>
-      <c r="B362" s="2" t="s">
+    <row r="367" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="4">
+        <v>424</v>
+      </c>
+      <c r="B367" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="C362" s="3" t="s">
+      <c r="C367" s="3" t="s">
         <v>724</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
-      <c r="A363" s="4">
-        <v>422</v>
-      </c>
-      <c r="B363" s="2" t="s">
+    <row r="368" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="4">
+        <v>425</v>
+      </c>
+      <c r="B368" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="C368" s="3" t="s">
         <v>726</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75">
-      <c r="A364" s="4">
-        <v>424</v>
-      </c>
-      <c r="B364" s="2" t="s">
+    <row r="369" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="4">
+        <v>428</v>
+      </c>
+      <c r="B369" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="C364" s="3" t="s">
+      <c r="C369" s="3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
-      <c r="A365" s="4">
-        <v>425</v>
-      </c>
-      <c r="B365" s="2" t="s">
+    <row r="370" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="4">
+        <v>429</v>
+      </c>
+      <c r="B370" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="C365" s="3" t="s">
+      <c r="C370" s="3" t="s">
         <v>730</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
-      <c r="A366" s="4">
-        <v>428</v>
-      </c>
-      <c r="B366" s="2" t="s">
+    <row r="371" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="4">
+        <v>431</v>
+      </c>
+      <c r="B371" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="C366" s="3" t="s">
+      <c r="C371" s="3" t="s">
         <v>732</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75">
-      <c r="A367" s="4">
-        <v>429</v>
-      </c>
-      <c r="B367" s="2" t="s">
+    <row r="372" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="4">
+        <v>432</v>
+      </c>
+      <c r="B372" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="C367" s="3" t="s">
+      <c r="C372" s="3" t="s">
         <v>734</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75">
-      <c r="A368" s="4">
-        <v>431</v>
-      </c>
-      <c r="B368" s="2" t="s">
+    <row r="373" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="4">
+        <v>433</v>
+      </c>
+      <c r="B373" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="C368" s="3" t="s">
+      <c r="C373" s="3" t="s">
         <v>736</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75">
-      <c r="A369" s="4">
-        <v>432</v>
-      </c>
-      <c r="B369" s="2" t="s">
+    <row r="374" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="4">
+        <v>434</v>
+      </c>
+      <c r="B374" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="C369" s="3" t="s">
+      <c r="C374" s="3" t="s">
         <v>738</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75">
-      <c r="A370" s="4">
-        <v>433</v>
-      </c>
-      <c r="B370" s="2" t="s">
+    <row r="375" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="4">
+        <v>435</v>
+      </c>
+      <c r="B375" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="C370" s="3" t="s">
+      <c r="C375" s="3" t="s">
         <v>740</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75">
-      <c r="A371" s="4">
-        <v>434</v>
-      </c>
-      <c r="B371" s="2" t="s">
+    <row r="376" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="4">
+        <v>436</v>
+      </c>
+      <c r="B376" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="C371" s="3" t="s">
+      <c r="C376" s="3" t="s">
         <v>742</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75">
-      <c r="A372" s="4">
-        <v>435</v>
-      </c>
-      <c r="B372" s="2" t="s">
+    <row r="377" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="4">
+        <v>437</v>
+      </c>
+      <c r="B377" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="C372" s="3" t="s">
+      <c r="C377" s="3" t="s">
         <v>744</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75">
-      <c r="A373" s="4">
-        <v>436</v>
-      </c>
-      <c r="B373" s="2" t="s">
+    <row r="378" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="4">
+        <v>438</v>
+      </c>
+      <c r="B378" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="C373" s="3" t="s">
+      <c r="C378" s="3" t="s">
         <v>746</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75">
-      <c r="A374" s="4">
-        <v>437</v>
-      </c>
-      <c r="B374" s="2" t="s">
+    <row r="379" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="4">
+        <v>439</v>
+      </c>
+      <c r="B379" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="C374" s="3" t="s">
+      <c r="C379" s="3" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="4">
+        <v>440</v>
+      </c>
+      <c r="B380" s="2" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
-      <c r="A375" s="4">
-        <v>438</v>
-      </c>
-      <c r="B375" s="2" t="s">
+      <c r="C380" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="4">
+        <v>441</v>
+      </c>
+      <c r="B381" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="C375" s="3" t="s">
+      <c r="C381" s="3" t="s">
         <v>750</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
-      <c r="A376" s="4">
-        <v>439</v>
-      </c>
-      <c r="B376" s="2" t="s">
+    <row r="382" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="4">
+        <v>442</v>
+      </c>
+      <c r="B382" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="C376" s="3" t="s">
+      <c r="C382" s="3" t="s">
         <v>752</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75">
-      <c r="A377" s="4">
-        <v>440</v>
-      </c>
-      <c r="B377" s="2" t="s">
+    <row r="383" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A383" s="4">
+        <v>443</v>
+      </c>
+      <c r="B383" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="C377" s="3" t="s">
+      <c r="C383" s="3" t="s">
         <v>754</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75">
-      <c r="A378" s="4">
-        <v>441</v>
-      </c>
-      <c r="B378" s="2" t="s">
+    <row r="384" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="4">
+        <v>444</v>
+      </c>
+      <c r="B384" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="C378" s="3" t="s">
+      <c r="C384" s="3" t="s">
         <v>756</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75">
-      <c r="A379" s="4">
-        <v>442</v>
-      </c>
-      <c r="B379" s="2" t="s">
+    <row r="385" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="4">
+        <v>445</v>
+      </c>
+      <c r="B385" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="C379" s="3" t="s">
+      <c r="C385" s="3" t="s">
         <v>758</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
-      <c r="A380" s="4">
-        <v>443</v>
-      </c>
-      <c r="B380" s="2" t="s">
+    <row r="386" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="4">
+        <v>447</v>
+      </c>
+      <c r="B386" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="C380" s="3" t="s">
+      <c r="C386" s="3" t="s">
         <v>760</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75">
-      <c r="A381" s="4">
-        <v>444</v>
-      </c>
-      <c r="B381" s="2" t="s">
+    <row r="387" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="4">
+        <v>448</v>
+      </c>
+      <c r="B387" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="C381" s="3" t="s">
+      <c r="C387" s="3" t="s">
         <v>762</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
-      <c r="A382" s="4">
-        <v>445</v>
-      </c>
-      <c r="B382" s="2" t="s">
+    <row r="388" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="4">
+        <v>449</v>
+      </c>
+      <c r="B388" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="C382" s="3" t="s">
+      <c r="C388" s="3" t="s">
         <v>764</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
-      <c r="A383" s="4">
-        <v>446</v>
-      </c>
-      <c r="B383" s="2" t="s">
+    <row r="389" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="4">
+        <v>450</v>
+      </c>
+      <c r="B389" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="C383" s="3" t="s">
+      <c r="C389" s="3" t="s">
         <v>766</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75">
-      <c r="A384" s="4">
-        <v>447</v>
-      </c>
-      <c r="B384" s="2" t="s">
+    <row r="390" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="4">
+        <v>451</v>
+      </c>
+      <c r="B390" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="C384" s="3" t="s">
+      <c r="C390" s="3" t="s">
         <v>768</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75">
-      <c r="A385" s="4">
-        <v>448</v>
-      </c>
-      <c r="B385" s="2" t="s">
+    <row r="391" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="4">
+        <v>453</v>
+      </c>
+      <c r="B391" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="C385" s="3" t="s">
+      <c r="C391" s="3" t="s">
         <v>770</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
-      <c r="A386" s="4">
-        <v>449</v>
-      </c>
-      <c r="B386" s="2" t="s">
+    <row r="392" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="4">
+        <v>454</v>
+      </c>
+      <c r="B392" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="C386" s="3" t="s">
+      <c r="C392" s="3" t="s">
         <v>772</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
-      <c r="A387" s="4">
-        <v>450</v>
-      </c>
-      <c r="B387" s="2" t="s">
+    <row r="393" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="4">
+        <v>455</v>
+      </c>
+      <c r="B393" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C387" s="3" t="s">
+      <c r="C393" s="3" t="s">
         <v>774</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
-      <c r="A388" s="4">
-        <v>451</v>
-      </c>
-      <c r="B388" s="2" t="s">
+    <row r="394" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A394" s="4">
+        <v>457</v>
+      </c>
+      <c r="B394" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="C388" s="3" t="s">
+      <c r="C394" s="3" t="s">
         <v>776</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
-      <c r="A389" s="4">
-        <v>453</v>
-      </c>
-      <c r="B389" s="2" t="s">
+    <row r="395" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A395" s="4">
+        <v>458</v>
+      </c>
+      <c r="B395" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="C389" s="3" t="s">
+      <c r="C395" s="3" t="s">
         <v>778</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
-      <c r="A390" s="4">
-        <v>454</v>
-      </c>
-      <c r="B390" s="2" t="s">
+    <row r="396" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A396" s="4">
+        <v>459</v>
+      </c>
+      <c r="B396" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="C390" s="3" t="s">
+      <c r="C396" s="3" t="s">
         <v>780</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
-      <c r="A391" s="4">
-        <v>455</v>
-      </c>
-      <c r="B391" s="2" t="s">
+    <row r="397" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A397" s="4">
+        <v>461</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="C391" s="3" t="s">
+      <c r="C397" s="3" t="s">
         <v>782</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
-      <c r="A392" s="4">
-        <v>457</v>
-      </c>
-      <c r="B392" s="2" t="s">
+    <row r="398" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A398" s="4">
+        <v>462</v>
+      </c>
+      <c r="B398" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="C392" s="3" t="s">
+      <c r="C398" s="3" t="s">
         <v>784</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
-      <c r="A393" s="4">
-        <v>458</v>
-      </c>
-      <c r="B393" s="2" t="s">
+    <row r="399" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A399" s="4">
+        <v>463</v>
+      </c>
+      <c r="B399" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="C393" s="3" t="s">
+      <c r="C399" s="3" t="s">
         <v>786</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
-      <c r="A394" s="4">
-        <v>459</v>
-      </c>
-      <c r="B394" s="2" t="s">
+    <row r="400" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A400" s="4">
+        <v>464</v>
+      </c>
+      <c r="B400" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="C394" s="3" t="s">
+      <c r="C400" s="3" t="s">
         <v>788</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75">
-      <c r="A395" s="4">
-        <v>461</v>
-      </c>
-      <c r="B395" s="2" t="s">
+    <row r="401" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A401" s="4">
+        <v>465</v>
+      </c>
+      <c r="B401" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="C395" s="3" t="s">
+      <c r="C401" s="3" t="s">
         <v>790</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
-      <c r="A396" s="4">
-        <v>462</v>
-      </c>
-      <c r="B396" s="2" t="s">
+    <row r="402" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A402" s="4">
+        <v>466</v>
+      </c>
+      <c r="B402" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="C396" s="3" t="s">
+      <c r="C402" s="3" t="s">
         <v>792</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
-      <c r="A397" s="4">
-        <v>463</v>
-      </c>
-      <c r="B397" s="2" t="s">
+    <row r="403" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="4">
+        <v>468</v>
+      </c>
+      <c r="B403" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="C397" s="3" t="s">
+      <c r="C403" s="3" t="s">
         <v>794</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
-      <c r="A398" s="4">
-        <v>464</v>
-      </c>
-      <c r="B398" s="2" t="s">
+    <row r="404" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="4">
+        <v>469</v>
+      </c>
+      <c r="B404" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="C398" s="3" t="s">
+      <c r="C404" s="3" t="s">
         <v>796</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
-      <c r="A399" s="4">
-        <v>465</v>
-      </c>
-      <c r="B399" s="2" t="s">
+    <row r="405" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="4">
+        <v>470</v>
+      </c>
+      <c r="B405" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="C399" s="3" t="s">
+      <c r="C405" s="3" t="s">
         <v>798</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75">
-      <c r="A400" s="4">
-        <v>466</v>
-      </c>
-      <c r="B400" s="2" t="s">
+    <row r="406" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A406" s="4">
+        <v>472</v>
+      </c>
+      <c r="B406" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="C400" s="3" t="s">
+      <c r="C406" s="3" t="s">
         <v>800</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75">
-      <c r="A401" s="4">
-        <v>468</v>
-      </c>
-      <c r="B401" s="2" t="s">
+    <row r="407" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A407" s="4">
+        <v>475</v>
+      </c>
+      <c r="B407" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="C401" s="3" t="s">
+      <c r="C407" s="3" t="s">
         <v>802</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75">
-      <c r="A402" s="4">
-        <v>469</v>
-      </c>
-      <c r="B402" s="2" t="s">
+    <row r="408" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A408" s="4">
+        <v>476</v>
+      </c>
+      <c r="B408" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="C402" s="3" t="s">
+      <c r="C408" s="3" t="s">
         <v>804</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75">
-      <c r="A403" s="4">
-        <v>470</v>
-      </c>
-      <c r="B403" s="2" t="s">
+    <row r="409" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="4">
+        <v>477</v>
+      </c>
+      <c r="B409" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="C403" s="3" t="s">
+      <c r="C409" s="3" t="s">
         <v>806</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75">
-      <c r="A404" s="4">
-        <v>472</v>
-      </c>
-      <c r="B404" s="2" t="s">
+    <row r="410" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A410" s="4">
+        <v>478</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="C404" s="3" t="s">
+      <c r="C410" s="3" t="s">
         <v>808</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75">
-      <c r="A405" s="4">
-        <v>475</v>
-      </c>
-      <c r="B405" s="2" t="s">
+    <row r="411" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A411" s="4">
+        <v>479</v>
+      </c>
+      <c r="B411" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="C405" s="3" t="s">
+      <c r="C411" s="3" t="s">
         <v>810</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75">
-      <c r="A406" s="4">
-        <v>476</v>
-      </c>
-      <c r="B406" s="2" t="s">
+    <row r="412" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A412" s="4">
+        <v>480</v>
+      </c>
+      <c r="B412" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="C406" s="3" t="s">
+      <c r="C412" s="3" t="s">
         <v>812</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75">
-      <c r="A407" s="4">
-        <v>477</v>
-      </c>
-      <c r="B407" s="2" t="s">
+    <row r="413" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A413" s="4">
+        <v>482</v>
+      </c>
+      <c r="B413" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="C407" s="3" t="s">
+      <c r="C413" s="3" t="s">
         <v>814</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75">
-      <c r="A408" s="4">
-        <v>478</v>
-      </c>
-      <c r="B408" s="2" t="s">
+    <row r="414" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A414" s="4">
+        <v>484</v>
+      </c>
+      <c r="B414" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="C408" s="3" t="s">
+      <c r="C414" s="3" t="s">
         <v>816</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75">
-      <c r="A409" s="4">
-        <v>479</v>
-      </c>
-      <c r="B409" s="2" t="s">
+    <row r="415" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A415" s="4">
+        <v>485</v>
+      </c>
+      <c r="B415" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="C409" s="3" t="s">
+      <c r="C415" s="3" t="s">
         <v>818</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75">
-      <c r="A410" s="4">
-        <v>480</v>
-      </c>
-      <c r="B410" s="2" t="s">
+    <row r="416" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A416" s="4">
+        <v>486</v>
+      </c>
+      <c r="B416" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="C410" s="3" t="s">
+      <c r="C416" s="3" t="s">
         <v>820</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75">
-      <c r="A411" s="4">
-        <v>482</v>
-      </c>
-      <c r="B411" s="2" t="s">
+    <row r="417" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A417" s="4">
+        <v>487</v>
+      </c>
+      <c r="B417" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="C411" s="3" t="s">
+      <c r="C417" s="3" t="s">
         <v>822</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75">
-      <c r="A412" s="4">
-        <v>484</v>
-      </c>
-      <c r="B412" s="2" t="s">
+    <row r="418" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A418" s="4">
+        <v>488</v>
+      </c>
+      <c r="B418" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="C412" s="3" t="s">
+      <c r="C418" s="3" t="s">
         <v>824</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75">
-      <c r="A413" s="4">
-        <v>485</v>
-      </c>
-      <c r="B413" s="2" t="s">
+    <row r="419" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A419" s="4">
+        <v>490</v>
+      </c>
+      <c r="B419" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="C413" s="3" t="s">
+      <c r="C419" s="3" t="s">
         <v>826</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75">
-      <c r="A414" s="4">
-        <v>486</v>
-      </c>
-      <c r="B414" s="2" t="s">
+    <row r="420" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="4">
+        <v>491</v>
+      </c>
+      <c r="B420" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="C414" s="3" t="s">
+      <c r="C420" s="3" t="s">
         <v>828</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75">
-      <c r="A415" s="4">
-        <v>487</v>
-      </c>
-      <c r="B415" s="2" t="s">
+    <row r="421" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A421" s="4">
+        <v>492</v>
+      </c>
+      <c r="B421" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C415" s="3" t="s">
+      <c r="C421" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75">
-      <c r="A416" s="4">
-        <v>488</v>
-      </c>
-      <c r="B416" s="2" t="s">
+    <row r="422" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A422" s="4">
+        <v>493</v>
+      </c>
+      <c r="B422" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="C416" s="3" t="s">
+      <c r="C422" s="3" t="s">
         <v>832</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75">
-      <c r="A417" s="4">
-        <v>490</v>
-      </c>
-      <c r="B417" s="2" t="s">
+    <row r="423" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A423" s="4">
+        <v>494</v>
+      </c>
+      <c r="B423" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="C417" s="3" t="s">
+      <c r="C423" s="3" t="s">
         <v>834</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75">
-      <c r="A418" s="4">
-        <v>491</v>
-      </c>
-      <c r="B418" s="2" t="s">
+    <row r="424" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A424" s="4">
+        <v>495</v>
+      </c>
+      <c r="B424" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="C418" s="3" t="s">
+      <c r="C424" s="3" t="s">
         <v>836</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75">
-      <c r="A419" s="4">
-        <v>492</v>
-      </c>
-      <c r="B419" s="2" t="s">
+    <row r="425" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A425" s="4">
+        <v>496</v>
+      </c>
+      <c r="B425" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="C419" s="3" t="s">
+      <c r="C425" s="3" t="s">
         <v>838</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75">
-      <c r="A420" s="4">
-        <v>493</v>
-      </c>
-      <c r="B420" s="2" t="s">
+    <row r="426" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A426" s="4">
+        <v>497</v>
+      </c>
+      <c r="B426" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="C420" s="3" t="s">
+      <c r="C426" s="3" t="s">
         <v>840</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75">
-      <c r="A421" s="4">
-        <v>494</v>
-      </c>
-      <c r="B421" s="2" t="s">
+    <row r="427" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A427" s="4">
+        <v>498</v>
+      </c>
+      <c r="B427" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="C421" s="3" t="s">
+      <c r="C427" s="3" t="s">
         <v>842</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75">
-      <c r="A422" s="4">
-        <v>495</v>
-      </c>
-      <c r="B422" s="2" t="s">
+    <row r="428" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A428" s="4">
+        <v>499</v>
+      </c>
+      <c r="B428" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="C422" s="3" t="s">
+      <c r="C428" s="3" t="s">
         <v>844</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75">
-      <c r="A423" s="4">
-        <v>496</v>
-      </c>
-      <c r="B423" s="2" t="s">
+    <row r="429" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A429" s="4">
+        <v>500</v>
+      </c>
+      <c r="B429" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="C423" s="3" t="s">
+      <c r="C429" s="3" t="s">
         <v>846</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75">
-      <c r="A424" s="4">
-        <v>497</v>
-      </c>
-      <c r="B424" s="2" t="s">
+    <row r="430" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A430" s="4">
+        <v>501</v>
+      </c>
+      <c r="B430" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="C424" s="3" t="s">
+      <c r="C430" s="3" t="s">
         <v>848</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75">
-      <c r="A425" s="4">
-        <v>498</v>
-      </c>
-      <c r="B425" s="2" t="s">
+    <row r="431" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A431" s="4">
+        <v>503</v>
+      </c>
+      <c r="B431" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C425" s="3" t="s">
+      <c r="C431" s="3" t="s">
         <v>850</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75">
-      <c r="A426" s="4">
-        <v>499</v>
-      </c>
-      <c r="B426" s="2" t="s">
+    <row r="432" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A432" s="4">
+        <v>504</v>
+      </c>
+      <c r="B432" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="C426" s="3" t="s">
+      <c r="C432" s="3" t="s">
         <v>852</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75">
-      <c r="A427" s="4">
-        <v>500</v>
-      </c>
-      <c r="B427" s="2" t="s">
+    <row r="433" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A433" s="4">
+        <v>506</v>
+      </c>
+      <c r="B433" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="C427" s="3" t="s">
+      <c r="C433" s="3" t="s">
         <v>854</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75">
-      <c r="A428" s="4">
-        <v>501</v>
-      </c>
-      <c r="B428" s="2" t="s">
+    <row r="434" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="4">
+        <v>508</v>
+      </c>
+      <c r="B434" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="C428" s="3" t="s">
+      <c r="C434" s="3" t="s">
         <v>856</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75">
-      <c r="A429" s="4">
-        <v>503</v>
-      </c>
-      <c r="B429" s="2" t="s">
+    <row r="435" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A435" s="4">
+        <v>509</v>
+      </c>
+      <c r="B435" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="C429" s="3" t="s">
+      <c r="C435" s="3" t="s">
         <v>858</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75">
-      <c r="A430" s="4">
-        <v>504</v>
-      </c>
-      <c r="B430" s="2" t="s">
+    <row r="436" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A436" s="4">
+        <v>511</v>
+      </c>
+      <c r="B436" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="C430" s="3" t="s">
+      <c r="C436" s="3" t="s">
         <v>860</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75">
-      <c r="A431" s="4">
-        <v>506</v>
-      </c>
-      <c r="B431" s="2" t="s">
+    <row r="437" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A437" s="4">
+        <v>512</v>
+      </c>
+      <c r="B437" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="C431" s="3" t="s">
+      <c r="C437" s="3" t="s">
         <v>862</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75">
-      <c r="A432" s="4">
-        <v>508</v>
-      </c>
-      <c r="B432" s="2" t="s">
+    <row r="438" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A438" s="4">
+        <v>513</v>
+      </c>
+      <c r="B438" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C432" s="3" t="s">
+      <c r="C438" s="3" t="s">
         <v>864</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75">
-      <c r="A433" s="4">
-        <v>509</v>
-      </c>
-      <c r="B433" s="2" t="s">
+    <row r="439" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A439" s="4">
+        <v>515</v>
+      </c>
+      <c r="B439" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="C433" s="3" t="s">
+      <c r="C439" s="3" t="s">
         <v>866</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75">
-      <c r="A434" s="4">
-        <v>511</v>
-      </c>
-      <c r="B434" s="2" t="s">
+    <row r="440" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A440" s="4">
+        <v>516</v>
+      </c>
+      <c r="B440" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="C434" s="3" t="s">
+      <c r="C440" s="3" t="s">
         <v>868</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75">
-      <c r="A435" s="4">
-        <v>512</v>
-      </c>
-      <c r="B435" s="2" t="s">
+    <row r="441" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A441" s="4">
+        <v>517</v>
+      </c>
+      <c r="B441" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="C435" s="3" t="s">
+      <c r="C441" s="3" t="s">
         <v>870</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75">
-      <c r="A436" s="4">
-        <v>513</v>
-      </c>
-      <c r="B436" s="2" t="s">
+    <row r="442" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A442" s="4">
+        <v>518</v>
+      </c>
+      <c r="B442" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="C436" s="3" t="s">
+      <c r="C442" s="3" t="s">
         <v>872</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75">
-      <c r="A437" s="4">
-        <v>515</v>
-      </c>
-      <c r="B437" s="2" t="s">
+    <row r="443" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A443" s="4">
+        <v>519</v>
+      </c>
+      <c r="B443" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="C437" s="3" t="s">
+      <c r="C443" s="3" t="s">
         <v>874</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75">
-      <c r="A438" s="4">
-        <v>516</v>
-      </c>
-      <c r="B438" s="2" t="s">
+    <row r="444" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A444" s="4">
+        <v>521</v>
+      </c>
+      <c r="B444" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="C438" s="3" t="s">
+      <c r="C444" s="3" t="s">
         <v>876</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75">
-      <c r="A439" s="4">
-        <v>517</v>
-      </c>
-      <c r="B439" s="2" t="s">
+    <row r="445" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A445" s="4">
+        <v>525</v>
+      </c>
+      <c r="B445" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="C439" s="3" t="s">
+      <c r="C445" s="3" t="s">
         <v>878</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75">
-      <c r="A440" s="4">
-        <v>518</v>
-      </c>
-      <c r="B440" s="2" t="s">
+    <row r="446" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="4">
+        <v>527</v>
+      </c>
+      <c r="B446" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="C440" s="3" t="s">
+      <c r="C446" s="3" t="s">
         <v>880</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75">
-      <c r="A441" s="4">
-        <v>519</v>
-      </c>
-      <c r="B441" s="2" t="s">
+    <row r="447" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A447" s="4">
+        <v>528</v>
+      </c>
+      <c r="B447" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="C441" s="3" t="s">
+      <c r="C447" s="3" t="s">
         <v>882</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75">
-      <c r="A442" s="4">
-        <v>521</v>
-      </c>
-      <c r="B442" s="2" t="s">
+    <row r="448" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A448" s="4">
+        <v>529</v>
+      </c>
+      <c r="B448" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="C442" s="3" t="s">
+      <c r="C448" s="3" t="s">
         <v>884</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75">
-      <c r="A443" s="4">
-        <v>525</v>
-      </c>
-      <c r="B443" s="2" t="s">
+    <row r="449" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A449" s="4">
+        <v>531</v>
+      </c>
+      <c r="B449" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="C443" s="3" t="s">
+      <c r="C449" s="3" t="s">
         <v>886</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75">
-      <c r="A444" s="4">
-        <v>527</v>
-      </c>
-      <c r="B444" s="2" t="s">
+    <row r="450" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A450" s="4">
+        <v>532</v>
+      </c>
+      <c r="B450" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="C444" s="3" t="s">
+      <c r="C450" s="3" t="s">
         <v>888</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75">
-      <c r="A445" s="4">
-        <v>528</v>
-      </c>
-      <c r="B445" s="2" t="s">
+    <row r="451" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A451" s="4">
+        <v>535</v>
+      </c>
+      <c r="B451" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="C445" s="3" t="s">
+      <c r="C451" s="3" t="s">
         <v>890</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75">
-      <c r="A446" s="4">
-        <v>529</v>
-      </c>
-      <c r="B446" s="2" t="s">
+    <row r="452" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A452" s="4">
+        <v>536</v>
+      </c>
+      <c r="B452" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="C446" s="3" t="s">
+      <c r="C452" s="3" t="s">
         <v>892</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75">
-      <c r="A447" s="4">
-        <v>531</v>
-      </c>
-      <c r="B447" s="2" t="s">
+    <row r="453" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A453" s="4">
+        <v>537</v>
+      </c>
+      <c r="B453" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="C447" s="3" t="s">
+      <c r="C453" s="3" t="s">
         <v>894</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75">
-      <c r="A448" s="4">
-        <v>532</v>
-      </c>
-      <c r="B448" s="2" t="s">
+    <row r="454" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A454" s="4">
+        <v>538</v>
+      </c>
+      <c r="B454" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="C448" s="3" t="s">
+      <c r="C454" s="3" t="s">
         <v>896</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75">
-      <c r="A449" s="4">
-        <v>535</v>
-      </c>
-      <c r="B449" s="2" t="s">
+    <row r="455" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A455" s="4">
+        <v>539</v>
+      </c>
+      <c r="B455" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="C449" s="3" t="s">
+      <c r="C455" s="3" t="s">
         <v>898</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75">
-      <c r="A450" s="4">
-        <v>536</v>
-      </c>
-      <c r="B450" s="2" t="s">
+    <row r="456" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A456" s="4">
+        <v>540</v>
+      </c>
+      <c r="B456" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="C450" s="3" t="s">
+      <c r="C456" s="3" t="s">
         <v>900</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75">
-      <c r="A451" s="4">
-        <v>537</v>
-      </c>
-      <c r="B451" s="2" t="s">
+    <row r="457" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A457" s="4">
+        <v>541</v>
+      </c>
+      <c r="B457" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="C451" s="3" t="s">
+      <c r="C457" s="3" t="s">
         <v>902</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75">
-      <c r="A452" s="4">
-        <v>538</v>
-      </c>
-      <c r="B452" s="2" t="s">
+    <row r="458" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A458" s="4">
+        <v>542</v>
+      </c>
+      <c r="B458" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="C452" s="3" t="s">
+      <c r="C458" s="3" t="s">
         <v>904</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75">
-      <c r="A453" s="4">
-        <v>539</v>
-      </c>
-      <c r="B453" s="2" t="s">
+    <row r="459" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A459" s="4">
+        <v>543</v>
+      </c>
+      <c r="B459" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="C453" s="3" t="s">
+      <c r="C459" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75">
-      <c r="A454" s="4">
-        <v>540</v>
-      </c>
-      <c r="B454" s="2" t="s">
+    <row r="460" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A460" s="4">
+        <v>544</v>
+      </c>
+      <c r="B460" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="C454" s="3" t="s">
+      <c r="C460" s="3" t="s">
         <v>908</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="19.5">
-      <c r="A455" s="4">
-        <v>541</v>
-      </c>
-      <c r="B455" s="2" t="s">
+    <row r="461" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A461" s="4">
+        <v>545</v>
+      </c>
+      <c r="B461" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="C455" s="3" t="s">
+      <c r="C461" s="3" t="s">
         <v>910</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75">
-      <c r="A456" s="4">
-        <v>542</v>
-      </c>
-      <c r="B456" s="2" t="s">
+    <row r="462" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A462" s="4">
+        <v>546</v>
+      </c>
+      <c r="B462" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="C456" s="3" t="s">
+      <c r="C462" s="3" t="s">
         <v>912</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75">
-      <c r="A457" s="4">
-        <v>543</v>
-      </c>
-      <c r="B457" s="2" t="s">
+    <row r="463" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A463" s="4">
+        <v>547</v>
+      </c>
+      <c r="B463" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="C457" s="3" t="s">
+      <c r="C463" s="3" t="s">
         <v>914</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75">
-      <c r="A458" s="4">
-        <v>544</v>
-      </c>
-      <c r="B458" s="2" t="s">
+    <row r="464" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A464" s="4">
+        <v>548</v>
+      </c>
+      <c r="B464" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="C458" s="3" t="s">
+      <c r="C464" s="3" t="s">
         <v>916</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75">
-      <c r="A459" s="4">
-        <v>545</v>
-      </c>
-      <c r="B459" s="2" t="s">
+    <row r="465" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A465" s="4">
+        <v>549</v>
+      </c>
+      <c r="B465" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="C459" s="3" t="s">
+      <c r="C465" s="3" t="s">
         <v>918</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75">
-      <c r="A460" s="4">
-        <v>546</v>
-      </c>
-      <c r="B460" s="2" t="s">
+    <row r="466" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A466" s="4">
+        <v>550</v>
+      </c>
+      <c r="B466" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="C460" s="3" t="s">
+      <c r="C466" s="3" t="s">
         <v>920</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75">
-      <c r="A461" s="4">
-        <v>547</v>
-      </c>
-      <c r="B461" s="2" t="s">
+    <row r="467" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A467" s="4">
+        <v>551</v>
+      </c>
+      <c r="B467" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="C461" s="3" t="s">
+      <c r="C467" s="3" t="s">
         <v>922</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75">
-      <c r="A462" s="4">
-        <v>548</v>
-      </c>
-      <c r="B462" s="2" t="s">
+    <row r="468" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A468" s="4">
+        <v>552</v>
+      </c>
+      <c r="B468" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="C462" s="3" t="s">
+      <c r="C468" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75">
-      <c r="A463" s="4">
-        <v>549</v>
-      </c>
-      <c r="B463" s="2" t="s">
+    <row r="469" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A469" s="4">
+        <v>553</v>
+      </c>
+      <c r="B469" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="C463" s="3" t="s">
+      <c r="C469" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75">
-      <c r="A464" s="4">
-        <v>550</v>
-      </c>
-      <c r="B464" s="2" t="s">
+    <row r="470" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A470" s="4">
+        <v>554</v>
+      </c>
+      <c r="B470" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="C464" s="3" t="s">
+      <c r="C470" s="3" t="s">
         <v>928</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75">
-      <c r="A465" s="4">
-        <v>551</v>
-      </c>
-      <c r="B465" s="2" t="s">
+    <row r="471" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A471" s="4">
+        <v>555</v>
+      </c>
+      <c r="B471" s="6" t="s">
         <v>929</v>
       </c>
-      <c r="C465" s="3" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75">
-      <c r="A466" s="4">
-        <v>552</v>
-      </c>
-      <c r="B466" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C466" s="3" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75">
-      <c r="A467" s="4">
-        <v>553</v>
-      </c>
-      <c r="B467" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="C467" s="3" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75">
-      <c r="A468" s="4">
-        <v>554</v>
-      </c>
-      <c r="B468" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="C468" s="3" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75">
-      <c r="A469" s="4">
-        <v>555</v>
-      </c>
-      <c r="B469" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>938</v>
+      <c r="C471" s="3" t="s">
+        <v>942</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>